--- a/public/upload/annuals/12.2014.xlsx
+++ b/public/upload/annuals/12.2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="330" windowWidth="14940" windowHeight="7335" tabRatio="985" firstSheet="6" activeTab="23"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="14940" windowHeight="7335" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="15" r:id="rId1"/>
@@ -65,8 +65,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'ფორმა N 8.1'!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="22">'ფორმა N 9.7'!$A$1:$I$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ფორმა N1'!$A$1:$M$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$E$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N4'!$A$1:$E$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N4.1'!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ფორმა N5'!$A$1:$D$85</definedName>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="758">
   <si>
     <t>პრემია</t>
   </si>
@@ -1649,9 +1649,6 @@
     <t>სხვა ფინანსური აქტივების ზრდა</t>
   </si>
   <si>
-    <t>სხვა არაფულადი შემოსავლები (მათ შორის  მოგება კურსთაშორისი სხვაობებიდან)</t>
-  </si>
-  <si>
     <t xml:space="preserve">სხვა ფულადი შემოსავლები </t>
   </si>
   <si>
@@ -2134,9 +2131,6 @@
     <t>13/06/2014</t>
   </si>
   <si>
-    <t>თანხის უკან დაბრუნება</t>
-  </si>
-  <si>
     <t>ფოტომომსახურება</t>
   </si>
   <si>
@@ -2624,6 +2618,9 @@
   </si>
   <si>
     <t>საქართველოს გზა</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2631,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2903,8 +2900,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Merriweather"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2941,8 +2942,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3578,6 +3585,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3592,7 +3651,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="608">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -4852,9 +4911,6 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -5489,6 +5545,18 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5526,13 +5594,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5570,13 +5638,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2743725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>545037</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5898,13 +5966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5942,13 +6010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2753244</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>554556</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7162,10 +7230,10 @@
       <c r="K1" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="595" t="s">
-        <v>489</v>
-      </c>
-      <c r="M1" s="596"/>
+      <c r="L1" s="594" t="s">
+        <v>488</v>
+      </c>
+      <c r="M1" s="595"/>
     </row>
     <row r="2" spans="1:13" s="58" customFormat="1">
       <c r="A2" s="63" t="s">
@@ -7235,11 +7303,11 @@
     </row>
     <row r="6" spans="1:13" s="58" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="231"/>
-      <c r="B6" s="597" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="597"/>
+      <c r="B6" s="596" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="596"/>
+      <c r="D6" s="596"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
       <c r="G6" s="228"/>
@@ -7260,11 +7328,11 @@
       <c r="G7" s="223"/>
       <c r="H7" s="223"/>
       <c r="I7" s="223"/>
-      <c r="J7" s="592" t="s">
+      <c r="J7" s="591" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="593"/>
-      <c r="L7" s="594"/>
+      <c r="K7" s="592"/>
+      <c r="L7" s="593"/>
       <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="75.75" thickBot="1">
@@ -7275,7 +7343,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D8" s="236" t="s">
         <v>282</v>
@@ -7489,65 +7557,65 @@
       <c r="M18" s="269"/>
     </row>
     <row r="19" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A19" s="492">
+      <c r="A19" s="491">
         <v>1</v>
       </c>
-      <c r="B19" s="493">
+      <c r="B19" s="492">
         <v>41772</v>
       </c>
-      <c r="C19" s="494" t="s">
+      <c r="C19" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" s="494">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="490" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="495">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="491" t="s">
+      <c r="F19" s="490" t="s">
         <v>500</v>
       </c>
-      <c r="F19" s="491" t="s">
+      <c r="G19" s="490" t="s">
         <v>501</v>
       </c>
-      <c r="G19" s="491" t="s">
+      <c r="H19" s="495" t="s">
         <v>502</v>
       </c>
-      <c r="H19" s="496" t="s">
-        <v>503</v>
-      </c>
       <c r="I19" s="258" t="s">
-        <v>496</v>
-      </c>
-      <c r="J19" s="491"/>
-      <c r="K19" s="491"/>
+        <v>495</v>
+      </c>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
       <c r="L19" s="401"/>
       <c r="M19" s="399"/>
     </row>
     <row r="20" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A20" s="497">
+      <c r="A20" s="496">
         <v>2</v>
       </c>
-      <c r="B20" s="493">
+      <c r="B20" s="492">
         <v>41774</v>
       </c>
-      <c r="C20" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" s="495">
+      <c r="C20" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="494">
         <v>4990</v>
       </c>
-      <c r="E20" s="491" t="s">
+      <c r="E20" s="490" t="s">
+        <v>503</v>
+      </c>
+      <c r="F20" s="490" t="s">
         <v>504</v>
       </c>
-      <c r="F20" s="491" t="s">
+      <c r="G20" s="490" t="s">
         <v>505</v>
       </c>
-      <c r="G20" s="491" t="s">
+      <c r="H20" s="497" t="s">
         <v>506</v>
       </c>
-      <c r="H20" s="498" t="s">
-        <v>507</v>
-      </c>
       <c r="I20" s="258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J20" s="407"/>
       <c r="K20" s="408"/>
@@ -7555,32 +7623,32 @@
       <c r="M20" s="399"/>
     </row>
     <row r="21" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A21" s="497">
+      <c r="A21" s="496">
         <v>3</v>
       </c>
-      <c r="B21" s="493">
+      <c r="B21" s="492">
         <v>41775</v>
       </c>
-      <c r="C21" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D21" s="495">
+      <c r="C21" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" s="494">
         <v>5000</v>
       </c>
-      <c r="E21" s="491" t="s">
+      <c r="E21" s="490" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" s="490" t="s">
+        <v>492</v>
+      </c>
+      <c r="G21" s="490" t="s">
         <v>508</v>
       </c>
-      <c r="F21" s="491" t="s">
-        <v>493</v>
-      </c>
-      <c r="G21" s="491" t="s">
+      <c r="H21" s="497" t="s">
         <v>509</v>
       </c>
-      <c r="H21" s="498" t="s">
-        <v>510</v>
-      </c>
       <c r="I21" s="258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J21" s="407"/>
       <c r="K21" s="408"/>
@@ -7588,32 +7656,32 @@
       <c r="M21" s="399"/>
     </row>
     <row r="22" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A22" s="497">
+      <c r="A22" s="496">
         <v>4</v>
       </c>
-      <c r="B22" s="493">
+      <c r="B22" s="492">
         <v>41774</v>
       </c>
-      <c r="C22" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" s="495">
+      <c r="C22" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="494">
         <v>3000</v>
       </c>
-      <c r="E22" s="491" t="s">
+      <c r="E22" s="490" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" s="490" t="s">
         <v>511</v>
       </c>
-      <c r="F22" s="491" t="s">
+      <c r="G22" s="490" t="s">
         <v>512</v>
       </c>
-      <c r="G22" s="491" t="s">
+      <c r="H22" s="497" t="s">
         <v>513</v>
       </c>
-      <c r="H22" s="498" t="s">
-        <v>514</v>
-      </c>
       <c r="I22" s="258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J22" s="407"/>
       <c r="K22" s="408"/>
@@ -7621,32 +7689,32 @@
       <c r="M22" s="399"/>
     </row>
     <row r="23" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A23" s="497">
+      <c r="A23" s="496">
         <v>5</v>
       </c>
-      <c r="B23" s="493">
+      <c r="B23" s="492">
         <v>41774</v>
       </c>
-      <c r="C23" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" s="495">
+      <c r="C23" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" s="494">
         <v>4000</v>
       </c>
-      <c r="E23" s="491" t="s">
+      <c r="E23" s="490" t="s">
+        <v>514</v>
+      </c>
+      <c r="F23" s="490" t="s">
         <v>515</v>
       </c>
-      <c r="F23" s="491" t="s">
+      <c r="G23" s="490" t="s">
         <v>516</v>
       </c>
-      <c r="G23" s="491" t="s">
+      <c r="H23" s="497" t="s">
         <v>517</v>
       </c>
-      <c r="H23" s="498" t="s">
-        <v>518</v>
-      </c>
       <c r="I23" s="258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J23" s="407"/>
       <c r="K23" s="408"/>
@@ -7654,32 +7722,32 @@
       <c r="M23" s="399"/>
     </row>
     <row r="24" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A24" s="497">
+      <c r="A24" s="496">
         <v>6</v>
       </c>
-      <c r="B24" s="493">
+      <c r="B24" s="492">
         <v>41775</v>
       </c>
-      <c r="C24" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D24" s="495">
+      <c r="C24" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D24" s="494">
         <v>3000</v>
       </c>
-      <c r="E24" s="491" t="s">
+      <c r="E24" s="490" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" s="490" t="s">
         <v>519</v>
       </c>
-      <c r="F24" s="491" t="s">
+      <c r="G24" s="490" t="s">
         <v>520</v>
       </c>
-      <c r="G24" s="491" t="s">
+      <c r="H24" s="497" t="s">
         <v>521</v>
       </c>
-      <c r="H24" s="498" t="s">
-        <v>522</v>
-      </c>
       <c r="I24" s="258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J24" s="407"/>
       <c r="K24" s="408"/>
@@ -7687,32 +7755,32 @@
       <c r="M24" s="399"/>
     </row>
     <row r="25" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A25" s="497">
+      <c r="A25" s="496">
         <v>7</v>
       </c>
-      <c r="B25" s="493">
+      <c r="B25" s="492">
         <v>41775</v>
       </c>
-      <c r="C25" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" s="495">
+      <c r="C25" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D25" s="494">
         <v>3000</v>
       </c>
-      <c r="E25" s="491" t="s">
+      <c r="E25" s="490" t="s">
+        <v>522</v>
+      </c>
+      <c r="F25" s="490" t="s">
         <v>523</v>
       </c>
-      <c r="F25" s="491" t="s">
+      <c r="G25" s="490" t="s">
         <v>524</v>
       </c>
-      <c r="G25" s="491" t="s">
-        <v>525</v>
-      </c>
-      <c r="H25" s="499">
+      <c r="H25" s="498">
         <v>1.05298143001E+19</v>
       </c>
       <c r="I25" s="258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J25" s="407"/>
       <c r="K25" s="408"/>
@@ -7720,32 +7788,32 @@
       <c r="M25" s="399"/>
     </row>
     <row r="26" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A26" s="497">
+      <c r="A26" s="496">
         <v>8</v>
       </c>
-      <c r="B26" s="500" t="s">
+      <c r="B26" s="499" t="s">
+        <v>525</v>
+      </c>
+      <c r="C26" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D26" s="494">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="490" t="s">
         <v>526</v>
       </c>
-      <c r="C26" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" s="495">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="491" t="s">
+      <c r="F26" s="490" t="s">
         <v>527</v>
       </c>
-      <c r="F26" s="491" t="s">
+      <c r="G26" s="490" t="s">
         <v>528</v>
       </c>
-      <c r="G26" s="491" t="s">
-        <v>529</v>
-      </c>
-      <c r="H26" s="501">
+      <c r="H26" s="500">
         <v>1.05298143001E+19</v>
       </c>
       <c r="I26" s="258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J26" s="407"/>
       <c r="K26" s="408"/>
@@ -7753,32 +7821,32 @@
       <c r="M26" s="399"/>
     </row>
     <row r="27" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A27" s="492">
+      <c r="A27" s="491">
         <v>1</v>
       </c>
-      <c r="B27" s="493" t="s">
+      <c r="B27" s="492" t="s">
+        <v>497</v>
+      </c>
+      <c r="C27" s="493" t="s">
         <v>498</v>
       </c>
-      <c r="C27" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D27" s="495">
+      <c r="D27" s="494">
         <v>2200</v>
       </c>
-      <c r="E27" s="491" t="s">
+      <c r="E27" s="490" t="s">
+        <v>493</v>
+      </c>
+      <c r="F27" s="490" t="s">
+        <v>492</v>
+      </c>
+      <c r="G27" s="490" t="s">
         <v>494</v>
       </c>
-      <c r="F27" s="491" t="s">
-        <v>493</v>
-      </c>
-      <c r="G27" s="491" t="s">
+      <c r="H27" s="495" t="s">
+        <v>496</v>
+      </c>
+      <c r="I27" s="258" t="s">
         <v>495</v>
-      </c>
-      <c r="H27" s="496" t="s">
-        <v>497</v>
-      </c>
-      <c r="I27" s="258" t="s">
-        <v>496</v>
       </c>
       <c r="J27" s="407"/>
       <c r="K27" s="408"/>
@@ -7786,32 +7854,32 @@
       <c r="M27" s="399"/>
     </row>
     <row r="28" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A28" s="497">
+      <c r="A28" s="496">
         <v>2</v>
       </c>
-      <c r="B28" s="502">
+      <c r="B28" s="501">
         <v>41774</v>
       </c>
-      <c r="C28" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D28" s="495">
+      <c r="C28" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" s="494">
         <v>3197</v>
       </c>
-      <c r="E28" s="491" t="s">
+      <c r="E28" s="490" t="s">
+        <v>529</v>
+      </c>
+      <c r="F28" s="490" t="s">
+        <v>492</v>
+      </c>
+      <c r="G28" s="490" t="s">
         <v>530</v>
       </c>
-      <c r="F28" s="491" t="s">
-        <v>493</v>
-      </c>
-      <c r="G28" s="491" t="s">
+      <c r="H28" s="495" t="s">
         <v>531</v>
       </c>
-      <c r="H28" s="496" t="s">
-        <v>532</v>
-      </c>
       <c r="I28" s="258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J28" s="407"/>
       <c r="K28" s="408"/>
@@ -7819,30 +7887,30 @@
       <c r="M28" s="399"/>
     </row>
     <row r="29" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A29" s="503"/>
-      <c r="B29" s="504">
+      <c r="A29" s="502"/>
+      <c r="B29" s="503">
         <v>41836</v>
       </c>
-      <c r="C29" s="505" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" s="506">
+      <c r="C29" s="504" t="s">
+        <v>498</v>
+      </c>
+      <c r="D29" s="505">
         <v>1000</v>
       </c>
-      <c r="E29" s="506" t="s">
+      <c r="E29" s="505" t="s">
+        <v>532</v>
+      </c>
+      <c r="F29" s="505" t="s">
         <v>533</v>
       </c>
-      <c r="F29" s="506" t="s">
+      <c r="G29" s="490" t="s">
         <v>534</v>
       </c>
-      <c r="G29" s="491" t="s">
+      <c r="H29" s="506" t="s">
         <v>535</v>
       </c>
-      <c r="H29" s="507" t="s">
+      <c r="I29" s="258" t="s">
         <v>536</v>
-      </c>
-      <c r="I29" s="258" t="s">
-        <v>537</v>
       </c>
       <c r="J29" s="407"/>
       <c r="K29" s="408"/>
@@ -7850,32 +7918,32 @@
       <c r="M29" s="399"/>
     </row>
     <row r="30" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A30" s="492">
+      <c r="A30" s="491">
         <v>1</v>
       </c>
-      <c r="B30" s="502">
+      <c r="B30" s="501">
         <v>41786</v>
       </c>
-      <c r="C30" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D30" s="508">
+      <c r="C30" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D30" s="507">
         <v>100</v>
       </c>
-      <c r="E30" s="509" t="s">
-        <v>494</v>
-      </c>
-      <c r="F30" s="509" t="s">
+      <c r="E30" s="508" t="s">
+        <v>493</v>
+      </c>
+      <c r="F30" s="508" t="s">
+        <v>537</v>
+      </c>
+      <c r="G30" s="508" t="s">
         <v>538</v>
       </c>
-      <c r="G30" s="509" t="s">
+      <c r="H30" s="509" t="s">
         <v>539</v>
       </c>
-      <c r="H30" s="510" t="s">
-        <v>540</v>
-      </c>
-      <c r="I30" s="511" t="s">
-        <v>496</v>
+      <c r="I30" s="510" t="s">
+        <v>495</v>
       </c>
       <c r="J30" s="407"/>
       <c r="K30" s="408"/>
@@ -7883,65 +7951,65 @@
       <c r="M30" s="399"/>
     </row>
     <row r="31" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A31" s="497">
+      <c r="A31" s="496">
         <v>2</v>
       </c>
-      <c r="B31" s="502">
+      <c r="B31" s="501">
         <v>41786</v>
       </c>
-      <c r="C31" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" s="512">
+      <c r="C31" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D31" s="511">
         <v>8000</v>
       </c>
-      <c r="E31" s="491" t="s">
+      <c r="E31" s="490" t="s">
+        <v>540</v>
+      </c>
+      <c r="F31" s="490" t="s">
         <v>541</v>
       </c>
-      <c r="F31" s="491" t="s">
+      <c r="G31" s="490" t="s">
         <v>542</v>
       </c>
-      <c r="G31" s="491" t="s">
+      <c r="H31" s="512" t="s">
         <v>543</v>
       </c>
-      <c r="H31" s="513" t="s">
-        <v>544</v>
-      </c>
-      <c r="I31" s="514" t="s">
-        <v>496</v>
+      <c r="I31" s="513" t="s">
+        <v>495</v>
       </c>
       <c r="J31" s="407"/>
       <c r="K31" s="408"/>
       <c r="L31" s="409"/>
       <c r="M31" s="410"/>
     </row>
-    <row r="32" spans="1:13" s="490" customFormat="1" ht="30.75">
-      <c r="A32" s="497">
+    <row r="32" spans="1:13" s="489" customFormat="1" ht="30.75">
+      <c r="A32" s="496">
         <v>3</v>
       </c>
-      <c r="B32" s="502">
+      <c r="B32" s="501">
         <v>41787</v>
       </c>
-      <c r="C32" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" s="512">
+      <c r="C32" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" s="511">
         <v>55</v>
       </c>
-      <c r="E32" s="491" t="s">
+      <c r="E32" s="490" t="s">
+        <v>529</v>
+      </c>
+      <c r="F32" s="490" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" s="490" t="s">
         <v>530</v>
       </c>
-      <c r="F32" s="491" t="s">
-        <v>493</v>
-      </c>
-      <c r="G32" s="491" t="s">
-        <v>531</v>
-      </c>
-      <c r="H32" s="513" t="s">
-        <v>545</v>
-      </c>
-      <c r="I32" s="514" t="s">
-        <v>460</v>
+      <c r="H32" s="512" t="s">
+        <v>544</v>
+      </c>
+      <c r="I32" s="513" t="s">
+        <v>459</v>
       </c>
       <c r="J32" s="400"/>
       <c r="K32" s="400"/>
@@ -7949,65 +8017,65 @@
       <c r="M32" s="403"/>
     </row>
     <row r="33" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A33" s="497">
+      <c r="A33" s="496">
         <v>4</v>
       </c>
-      <c r="B33" s="502">
+      <c r="B33" s="501">
         <v>41787</v>
       </c>
-      <c r="C33" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" s="512">
+      <c r="C33" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D33" s="511">
         <v>90</v>
       </c>
-      <c r="E33" s="491" t="s">
+      <c r="E33" s="490" t="s">
+        <v>545</v>
+      </c>
+      <c r="F33" s="490" t="s">
         <v>546</v>
       </c>
-      <c r="F33" s="491" t="s">
+      <c r="G33" s="490" t="s">
         <v>547</v>
       </c>
-      <c r="G33" s="491" t="s">
+      <c r="H33" s="512" t="s">
         <v>548</v>
       </c>
-      <c r="H33" s="513" t="s">
+      <c r="I33" s="513" t="s">
+        <v>495</v>
+      </c>
+      <c r="J33" s="486"/>
+      <c r="K33" s="487"/>
+      <c r="L33" s="488"/>
+      <c r="M33" s="485"/>
+    </row>
+    <row r="34" spans="1:13" s="402" customFormat="1" ht="30.75">
+      <c r="A34" s="496">
+        <v>5</v>
+      </c>
+      <c r="B34" s="501">
+        <v>41789</v>
+      </c>
+      <c r="C34" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D34" s="511">
+        <v>10900</v>
+      </c>
+      <c r="E34" s="490" t="s">
         <v>549</v>
       </c>
-      <c r="I33" s="514" t="s">
-        <v>496</v>
-      </c>
-      <c r="J33" s="487"/>
-      <c r="K33" s="488"/>
-      <c r="L33" s="489"/>
-      <c r="M33" s="486"/>
-    </row>
-    <row r="34" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A34" s="497">
-        <v>5</v>
-      </c>
-      <c r="B34" s="502">
-        <v>41789</v>
-      </c>
-      <c r="C34" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" s="512">
-        <v>10900</v>
-      </c>
-      <c r="E34" s="491" t="s">
+      <c r="F34" s="490" t="s">
         <v>550</v>
       </c>
-      <c r="F34" s="491" t="s">
+      <c r="G34" s="490" t="s">
         <v>551</v>
       </c>
-      <c r="G34" s="491" t="s">
+      <c r="H34" s="512" t="s">
         <v>552</v>
       </c>
-      <c r="H34" s="513" t="s">
-        <v>553</v>
-      </c>
-      <c r="I34" s="514" t="s">
-        <v>496</v>
+      <c r="I34" s="513" t="s">
+        <v>495</v>
       </c>
       <c r="J34" s="407"/>
       <c r="K34" s="408"/>
@@ -8015,30 +8083,30 @@
       <c r="M34" s="410"/>
     </row>
     <row r="35" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A35" s="497">
+      <c r="A35" s="496">
         <v>6</v>
       </c>
-      <c r="B35" s="502">
+      <c r="B35" s="501">
         <v>41789</v>
       </c>
-      <c r="C35" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" s="512">
+      <c r="C35" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D35" s="511">
         <v>500</v>
       </c>
-      <c r="E35" s="491" t="s">
+      <c r="E35" s="490" t="s">
+        <v>553</v>
+      </c>
+      <c r="F35" s="490" t="s">
         <v>554</v>
       </c>
-      <c r="F35" s="491" t="s">
+      <c r="G35" s="490" t="s">
         <v>555</v>
       </c>
-      <c r="G35" s="491" t="s">
-        <v>556</v>
-      </c>
-      <c r="H35" s="491"/>
-      <c r="I35" s="514" t="s">
-        <v>460</v>
+      <c r="H35" s="490"/>
+      <c r="I35" s="513" t="s">
+        <v>459</v>
       </c>
       <c r="J35" s="407"/>
       <c r="K35" s="408"/>
@@ -8046,32 +8114,32 @@
       <c r="M35" s="410"/>
     </row>
     <row r="36" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A36" s="497">
+      <c r="A36" s="496">
         <v>7</v>
       </c>
-      <c r="B36" s="515" t="s">
+      <c r="B36" s="514" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D36" s="511">
+        <v>300</v>
+      </c>
+      <c r="E36" s="490" t="s">
         <v>557</v>
       </c>
-      <c r="C36" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D36" s="512">
-        <v>300</v>
-      </c>
-      <c r="E36" s="491" t="s">
+      <c r="F36" s="490" t="s">
         <v>558</v>
       </c>
-      <c r="F36" s="491" t="s">
+      <c r="G36" s="490" t="s">
         <v>559</v>
       </c>
-      <c r="G36" s="491" t="s">
+      <c r="H36" s="512" t="s">
         <v>560</v>
       </c>
-      <c r="H36" s="513" t="s">
+      <c r="I36" s="513" t="s">
         <v>561</v>
-      </c>
-      <c r="I36" s="514" t="s">
-        <v>562</v>
       </c>
       <c r="J36" s="407"/>
       <c r="K36" s="408"/>
@@ -8079,32 +8147,32 @@
       <c r="M36" s="410"/>
     </row>
     <row r="37" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A37" s="497">
+      <c r="A37" s="496">
         <v>8</v>
       </c>
-      <c r="B37" s="515" t="s">
+      <c r="B37" s="514" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D37" s="511">
+        <v>360</v>
+      </c>
+      <c r="E37" s="490" t="s">
         <v>563</v>
       </c>
-      <c r="C37" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" s="512">
-        <v>360</v>
-      </c>
-      <c r="E37" s="491" t="s">
+      <c r="F37" s="490" t="s">
         <v>564</v>
       </c>
-      <c r="F37" s="491" t="s">
+      <c r="G37" s="490" t="s">
         <v>565</v>
       </c>
-      <c r="G37" s="491" t="s">
+      <c r="H37" s="512" t="s">
         <v>566</v>
       </c>
-      <c r="H37" s="513" t="s">
+      <c r="I37" s="513" t="s">
         <v>567</v>
-      </c>
-      <c r="I37" s="514" t="s">
-        <v>568</v>
       </c>
       <c r="J37" s="407"/>
       <c r="K37" s="408"/>
@@ -8112,32 +8180,32 @@
       <c r="M37" s="410"/>
     </row>
     <row r="38" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A38" s="497">
+      <c r="A38" s="496">
         <v>9</v>
       </c>
-      <c r="B38" s="515" t="s">
-        <v>569</v>
-      </c>
-      <c r="C38" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D38" s="512">
+      <c r="B38" s="514" t="s">
+        <v>568</v>
+      </c>
+      <c r="C38" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D38" s="511">
         <v>4855</v>
       </c>
-      <c r="E38" s="491" t="s">
+      <c r="E38" s="490" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" s="490" t="s">
+        <v>492</v>
+      </c>
+      <c r="G38" s="490" t="s">
         <v>494</v>
       </c>
-      <c r="F38" s="491" t="s">
-        <v>493</v>
-      </c>
-      <c r="G38" s="491" t="s">
+      <c r="H38" s="512" t="s">
+        <v>496</v>
+      </c>
+      <c r="I38" s="513" t="s">
         <v>495</v>
-      </c>
-      <c r="H38" s="513" t="s">
-        <v>497</v>
-      </c>
-      <c r="I38" s="514" t="s">
-        <v>496</v>
       </c>
       <c r="J38" s="407"/>
       <c r="K38" s="408"/>
@@ -8145,32 +8213,32 @@
       <c r="M38" s="410"/>
     </row>
     <row r="39" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A39" s="497">
+      <c r="A39" s="496">
         <v>10</v>
       </c>
-      <c r="B39" s="515" t="s">
+      <c r="B39" s="514" t="s">
+        <v>569</v>
+      </c>
+      <c r="C39" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D39" s="511">
+        <v>1900</v>
+      </c>
+      <c r="E39" s="490" t="s">
         <v>570</v>
       </c>
-      <c r="C39" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D39" s="512">
-        <v>1900</v>
-      </c>
-      <c r="E39" s="491" t="s">
+      <c r="F39" s="490" t="s">
         <v>571</v>
       </c>
-      <c r="F39" s="491" t="s">
+      <c r="G39" s="490" t="s">
         <v>572</v>
       </c>
-      <c r="G39" s="491" t="s">
+      <c r="H39" s="512" t="s">
         <v>573</v>
       </c>
-      <c r="H39" s="513" t="s">
-        <v>574</v>
-      </c>
-      <c r="I39" s="514" t="s">
-        <v>496</v>
+      <c r="I39" s="513" t="s">
+        <v>495</v>
       </c>
       <c r="J39" s="407"/>
       <c r="K39" s="408"/>
@@ -8178,32 +8246,32 @@
       <c r="M39" s="410"/>
     </row>
     <row r="40" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A40" s="497">
+      <c r="A40" s="496">
         <v>11</v>
       </c>
-      <c r="B40" s="515" t="s">
-        <v>570</v>
-      </c>
-      <c r="C40" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D40" s="512">
+      <c r="B40" s="514" t="s">
+        <v>569</v>
+      </c>
+      <c r="C40" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="511">
         <v>4500</v>
       </c>
-      <c r="E40" s="491" t="s">
+      <c r="E40" s="490" t="s">
+        <v>574</v>
+      </c>
+      <c r="F40" s="490" t="s">
         <v>575</v>
       </c>
-      <c r="F40" s="491" t="s">
+      <c r="G40" s="490" t="s">
         <v>576</v>
       </c>
-      <c r="G40" s="491" t="s">
+      <c r="H40" s="512" t="s">
         <v>577</v>
       </c>
-      <c r="H40" s="513" t="s">
-        <v>578</v>
-      </c>
-      <c r="I40" s="514" t="s">
-        <v>537</v>
+      <c r="I40" s="513" t="s">
+        <v>536</v>
       </c>
       <c r="J40" s="407"/>
       <c r="K40" s="408"/>
@@ -8211,32 +8279,32 @@
       <c r="M40" s="410"/>
     </row>
     <row r="41" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A41" s="497">
+      <c r="A41" s="496">
         <v>12</v>
       </c>
-      <c r="B41" s="515" t="s">
-        <v>579</v>
-      </c>
-      <c r="C41" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" s="512">
+      <c r="B41" s="514" t="s">
+        <v>578</v>
+      </c>
+      <c r="C41" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D41" s="511">
         <v>540</v>
       </c>
-      <c r="E41" s="491" t="s">
+      <c r="E41" s="490" t="s">
+        <v>545</v>
+      </c>
+      <c r="F41" s="490" t="s">
         <v>546</v>
       </c>
-      <c r="F41" s="491" t="s">
+      <c r="G41" s="490" t="s">
         <v>547</v>
       </c>
-      <c r="G41" s="491" t="s">
+      <c r="H41" s="512" t="s">
         <v>548</v>
       </c>
-      <c r="H41" s="513" t="s">
-        <v>549</v>
-      </c>
-      <c r="I41" s="514" t="s">
-        <v>496</v>
+      <c r="I41" s="513" t="s">
+        <v>495</v>
       </c>
       <c r="J41" s="407"/>
       <c r="K41" s="408"/>
@@ -8244,32 +8312,32 @@
       <c r="M41" s="410"/>
     </row>
     <row r="42" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A42" s="497">
+      <c r="A42" s="496">
         <v>13</v>
       </c>
-      <c r="B42" s="515" t="s">
-        <v>579</v>
-      </c>
-      <c r="C42" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D42" s="512">
+      <c r="B42" s="514" t="s">
+        <v>578</v>
+      </c>
+      <c r="C42" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D42" s="511">
         <v>179</v>
       </c>
-      <c r="E42" s="491" t="s">
+      <c r="E42" s="490" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42" s="490" t="s">
         <v>564</v>
       </c>
-      <c r="F42" s="491" t="s">
+      <c r="G42" s="490" t="s">
         <v>565</v>
       </c>
-      <c r="G42" s="491" t="s">
+      <c r="H42" s="515" t="s">
         <v>566</v>
       </c>
-      <c r="H42" s="516" t="s">
+      <c r="I42" s="513" t="s">
         <v>567</v>
-      </c>
-      <c r="I42" s="514" t="s">
-        <v>568</v>
       </c>
       <c r="J42" s="407"/>
       <c r="K42" s="408"/>
@@ -8277,32 +8345,32 @@
       <c r="M42" s="410"/>
     </row>
     <row r="43" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A43" s="497">
+      <c r="A43" s="496">
         <v>14</v>
       </c>
-      <c r="B43" s="515" t="s">
-        <v>580</v>
-      </c>
-      <c r="C43" s="494" t="s">
+      <c r="B43" s="514" t="s">
+        <v>579</v>
+      </c>
+      <c r="C43" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="511">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="490" t="s">
         <v>499</v>
       </c>
-      <c r="D43" s="512">
-        <v>5000</v>
-      </c>
-      <c r="E43" s="491" t="s">
+      <c r="F43" s="490" t="s">
         <v>500</v>
       </c>
-      <c r="F43" s="491" t="s">
+      <c r="G43" s="490" t="s">
         <v>501</v>
       </c>
-      <c r="G43" s="491" t="s">
+      <c r="H43" s="495" t="s">
         <v>502</v>
       </c>
-      <c r="H43" s="496" t="s">
-        <v>503</v>
-      </c>
       <c r="I43" s="258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J43" s="407"/>
       <c r="K43" s="408"/>
@@ -8310,32 +8378,32 @@
       <c r="M43" s="410"/>
     </row>
     <row r="44" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A44" s="497">
+      <c r="A44" s="496">
         <v>15</v>
       </c>
-      <c r="B44" s="515" t="s">
+      <c r="B44" s="514" t="s">
+        <v>580</v>
+      </c>
+      <c r="C44" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" s="511">
+        <v>540</v>
+      </c>
+      <c r="E44" s="490" t="s">
         <v>581</v>
       </c>
-      <c r="C44" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D44" s="512">
-        <v>540</v>
-      </c>
-      <c r="E44" s="491" t="s">
+      <c r="F44" s="490" t="s">
         <v>582</v>
       </c>
-      <c r="F44" s="491" t="s">
+      <c r="G44" s="490" t="s">
         <v>583</v>
       </c>
-      <c r="G44" s="491" t="s">
+      <c r="H44" s="512" t="s">
         <v>584</v>
       </c>
-      <c r="H44" s="513" t="s">
-        <v>585</v>
-      </c>
-      <c r="I44" s="514" t="s">
-        <v>496</v>
+      <c r="I44" s="513" t="s">
+        <v>495</v>
       </c>
       <c r="J44" s="407"/>
       <c r="K44" s="408"/>
@@ -8343,32 +8411,32 @@
       <c r="M44" s="410"/>
     </row>
     <row r="45" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A45" s="497">
+      <c r="A45" s="496">
         <v>16</v>
       </c>
-      <c r="B45" s="515" t="s">
+      <c r="B45" s="514" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" s="493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" s="494">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="490" t="s">
         <v>586</v>
       </c>
-      <c r="C45" s="494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D45" s="495">
-        <v>3000</v>
-      </c>
-      <c r="E45" s="491" t="s">
+      <c r="F45" s="490" t="s">
         <v>587</v>
       </c>
-      <c r="F45" s="491" t="s">
+      <c r="G45" s="490" t="s">
         <v>588</v>
       </c>
-      <c r="G45" s="491" t="s">
+      <c r="H45" s="512" t="s">
         <v>589</v>
       </c>
-      <c r="H45" s="513" t="s">
-        <v>590</v>
-      </c>
-      <c r="I45" s="517" t="s">
-        <v>496</v>
+      <c r="I45" s="516" t="s">
+        <v>495</v>
       </c>
       <c r="J45" s="407"/>
       <c r="K45" s="408"/>
@@ -8376,32 +8444,32 @@
       <c r="M45" s="410"/>
     </row>
     <row r="46" spans="1:13" s="402" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A46" s="497">
+      <c r="A46" s="496">
         <v>17</v>
       </c>
-      <c r="B46" s="515" t="s">
-        <v>581</v>
-      </c>
-      <c r="C46" s="518" t="s">
-        <v>499</v>
-      </c>
-      <c r="D46" s="519">
+      <c r="B46" s="514" t="s">
+        <v>580</v>
+      </c>
+      <c r="C46" s="517" t="s">
+        <v>498</v>
+      </c>
+      <c r="D46" s="518">
         <v>640</v>
       </c>
-      <c r="E46" s="520" t="s">
+      <c r="E46" s="519" t="s">
+        <v>590</v>
+      </c>
+      <c r="F46" s="519" t="s">
+        <v>571</v>
+      </c>
+      <c r="G46" s="519" t="s">
         <v>591</v>
       </c>
-      <c r="F46" s="520" t="s">
-        <v>572</v>
-      </c>
-      <c r="G46" s="520" t="s">
+      <c r="H46" s="520" t="s">
         <v>592</v>
       </c>
-      <c r="H46" s="521" t="s">
-        <v>593</v>
-      </c>
-      <c r="I46" s="514" t="s">
-        <v>460</v>
+      <c r="I46" s="513" t="s">
+        <v>459</v>
       </c>
       <c r="J46" s="407"/>
       <c r="K46" s="408"/>
@@ -8409,32 +8477,32 @@
       <c r="M46" s="410"/>
     </row>
     <row r="47" spans="1:13" s="402" customFormat="1" ht="30.75">
-      <c r="A47" s="497">
+      <c r="A47" s="496">
         <v>18</v>
       </c>
-      <c r="B47" s="522" t="s">
-        <v>594</v>
-      </c>
-      <c r="C47" s="523" t="s">
-        <v>499</v>
-      </c>
-      <c r="D47" s="524">
+      <c r="B47" s="521" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="522" t="s">
+        <v>498</v>
+      </c>
+      <c r="D47" s="523">
         <v>4400</v>
       </c>
-      <c r="E47" s="525" t="s">
+      <c r="E47" s="524" t="s">
+        <v>493</v>
+      </c>
+      <c r="F47" s="524" t="s">
+        <v>492</v>
+      </c>
+      <c r="G47" s="524" t="s">
         <v>494</v>
       </c>
-      <c r="F47" s="525" t="s">
-        <v>493</v>
-      </c>
-      <c r="G47" s="525" t="s">
+      <c r="H47" s="512" t="s">
+        <v>496</v>
+      </c>
+      <c r="I47" s="525" t="s">
         <v>495</v>
-      </c>
-      <c r="H47" s="513" t="s">
-        <v>497</v>
-      </c>
-      <c r="I47" s="526" t="s">
-        <v>496</v>
       </c>
       <c r="J47" s="407"/>
       <c r="K47" s="408"/>
@@ -8442,32 +8510,32 @@
       <c r="M47" s="410"/>
     </row>
     <row r="48" spans="1:13" s="402" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A48" s="497">
+      <c r="A48" s="496">
         <v>19</v>
       </c>
-      <c r="B48" s="585" t="s">
+      <c r="B48" s="584" t="s">
+        <v>750</v>
+      </c>
+      <c r="C48" s="585" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="586">
+        <v>5175</v>
+      </c>
+      <c r="E48" s="587" t="s">
+        <v>725</v>
+      </c>
+      <c r="F48" s="588" t="s">
+        <v>527</v>
+      </c>
+      <c r="G48" s="526" t="s">
+        <v>726</v>
+      </c>
+      <c r="H48" s="497" t="s">
+        <v>751</v>
+      </c>
+      <c r="I48" s="527" t="s">
         <v>752</v>
-      </c>
-      <c r="C48" s="586" t="s">
-        <v>499</v>
-      </c>
-      <c r="D48" s="587">
-        <v>5175</v>
-      </c>
-      <c r="E48" s="588" t="s">
-        <v>727</v>
-      </c>
-      <c r="F48" s="589" t="s">
-        <v>528</v>
-      </c>
-      <c r="G48" s="527" t="s">
-        <v>728</v>
-      </c>
-      <c r="H48" s="498" t="s">
-        <v>753</v>
-      </c>
-      <c r="I48" s="528" t="s">
-        <v>754</v>
       </c>
       <c r="J48" s="407"/>
       <c r="K48" s="408"/>
@@ -8475,15 +8543,15 @@
       <c r="M48" s="410"/>
     </row>
     <row r="49" spans="1:13" s="402" customFormat="1" ht="15.75">
-      <c r="A49" s="497"/>
-      <c r="B49" s="515"/>
-      <c r="C49" s="529"/>
-      <c r="D49" s="529"/>
-      <c r="E49" s="529"/>
-      <c r="F49" s="529"/>
-      <c r="G49" s="530"/>
-      <c r="H49" s="530"/>
-      <c r="I49" s="530"/>
+      <c r="A49" s="496"/>
+      <c r="B49" s="514"/>
+      <c r="C49" s="528"/>
+      <c r="D49" s="528"/>
+      <c r="E49" s="528"/>
+      <c r="F49" s="528"/>
+      <c r="G49" s="529"/>
+      <c r="H49" s="529"/>
+      <c r="I49" s="529"/>
       <c r="J49" s="407"/>
       <c r="K49" s="408"/>
       <c r="L49" s="409"/>
@@ -8491,7 +8559,7 @@
     </row>
     <row r="50" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A50" s="397"/>
-      <c r="B50" s="480"/>
+      <c r="B50" s="479"/>
       <c r="C50" s="403"/>
       <c r="D50" s="404"/>
       <c r="E50" s="405"/>
@@ -8506,7 +8574,7 @@
     </row>
     <row r="51" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A51" s="397"/>
-      <c r="B51" s="480"/>
+      <c r="B51" s="479"/>
       <c r="C51" s="403"/>
       <c r="D51" s="404"/>
       <c r="E51" s="405"/>
@@ -8521,7 +8589,7 @@
     </row>
     <row r="52" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A52" s="397"/>
-      <c r="B52" s="480"/>
+      <c r="B52" s="479"/>
       <c r="C52" s="403"/>
       <c r="D52" s="404"/>
       <c r="E52" s="405"/>
@@ -8536,7 +8604,7 @@
     </row>
     <row r="53" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A53" s="397"/>
-      <c r="B53" s="480"/>
+      <c r="B53" s="479"/>
       <c r="C53" s="403"/>
       <c r="D53" s="404"/>
       <c r="E53" s="405"/>
@@ -8551,7 +8619,7 @@
     </row>
     <row r="54" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A54" s="397"/>
-      <c r="B54" s="480"/>
+      <c r="B54" s="479"/>
       <c r="C54" s="403"/>
       <c r="D54" s="404"/>
       <c r="E54" s="405"/>
@@ -8566,7 +8634,7 @@
     </row>
     <row r="55" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A55" s="397"/>
-      <c r="B55" s="480"/>
+      <c r="B55" s="479"/>
       <c r="C55" s="403"/>
       <c r="D55" s="404"/>
       <c r="E55" s="405"/>
@@ -8581,7 +8649,7 @@
     </row>
     <row r="56" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A56" s="397"/>
-      <c r="B56" s="480"/>
+      <c r="B56" s="479"/>
       <c r="C56" s="403"/>
       <c r="D56" s="404"/>
       <c r="E56" s="405"/>
@@ -8596,7 +8664,7 @@
     </row>
     <row r="57" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A57" s="397"/>
-      <c r="B57" s="480"/>
+      <c r="B57" s="479"/>
       <c r="C57" s="403"/>
       <c r="D57" s="404"/>
       <c r="E57" s="405"/>
@@ -8611,7 +8679,7 @@
     </row>
     <row r="58" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A58" s="397"/>
-      <c r="B58" s="480"/>
+      <c r="B58" s="479"/>
       <c r="C58" s="403"/>
       <c r="D58" s="404"/>
       <c r="E58" s="405"/>
@@ -8626,7 +8694,7 @@
     </row>
     <row r="59" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A59" s="397"/>
-      <c r="B59" s="480"/>
+      <c r="B59" s="479"/>
       <c r="C59" s="403"/>
       <c r="D59" s="404"/>
       <c r="E59" s="405"/>
@@ -8641,7 +8709,7 @@
     </row>
     <row r="60" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A60" s="397"/>
-      <c r="B60" s="480"/>
+      <c r="B60" s="479"/>
       <c r="C60" s="403"/>
       <c r="D60" s="404"/>
       <c r="E60" s="405"/>
@@ -8656,7 +8724,7 @@
     </row>
     <row r="61" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A61" s="397"/>
-      <c r="B61" s="480"/>
+      <c r="B61" s="479"/>
       <c r="C61" s="403"/>
       <c r="D61" s="404"/>
       <c r="E61" s="405"/>
@@ -8671,7 +8739,7 @@
     </row>
     <row r="62" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A62" s="397"/>
-      <c r="B62" s="480"/>
+      <c r="B62" s="479"/>
       <c r="C62" s="403"/>
       <c r="D62" s="404"/>
       <c r="E62" s="405"/>
@@ -8686,7 +8754,7 @@
     </row>
     <row r="63" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A63" s="397"/>
-      <c r="B63" s="480"/>
+      <c r="B63" s="479"/>
       <c r="C63" s="403"/>
       <c r="D63" s="404"/>
       <c r="E63" s="405"/>
@@ -8701,7 +8769,7 @@
     </row>
     <row r="64" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A64" s="397"/>
-      <c r="B64" s="480"/>
+      <c r="B64" s="479"/>
       <c r="C64" s="403"/>
       <c r="D64" s="404"/>
       <c r="E64" s="405"/>
@@ -8716,7 +8784,7 @@
     </row>
     <row r="65" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A65" s="397"/>
-      <c r="B65" s="480"/>
+      <c r="B65" s="479"/>
       <c r="C65" s="403"/>
       <c r="D65" s="404"/>
       <c r="E65" s="405"/>
@@ -8731,7 +8799,7 @@
     </row>
     <row r="66" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A66" s="397"/>
-      <c r="B66" s="480"/>
+      <c r="B66" s="479"/>
       <c r="C66" s="403"/>
       <c r="D66" s="404"/>
       <c r="E66" s="405"/>
@@ -8746,7 +8814,7 @@
     </row>
     <row r="67" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A67" s="397"/>
-      <c r="B67" s="480"/>
+      <c r="B67" s="479"/>
       <c r="C67" s="403"/>
       <c r="D67" s="404"/>
       <c r="E67" s="405"/>
@@ -8761,7 +8829,7 @@
     </row>
     <row r="68" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A68" s="397"/>
-      <c r="B68" s="480"/>
+      <c r="B68" s="479"/>
       <c r="C68" s="403"/>
       <c r="D68" s="404"/>
       <c r="E68" s="405"/>
@@ -8776,7 +8844,7 @@
     </row>
     <row r="69" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A69" s="397"/>
-      <c r="B69" s="480"/>
+      <c r="B69" s="479"/>
       <c r="C69" s="403"/>
       <c r="D69" s="404"/>
       <c r="E69" s="405"/>
@@ -8791,7 +8859,7 @@
     </row>
     <row r="70" spans="1:13" s="402" customFormat="1" ht="15.75">
       <c r="A70" s="397"/>
-      <c r="B70" s="480"/>
+      <c r="B70" s="479"/>
       <c r="C70" s="403"/>
       <c r="D70" s="404"/>
       <c r="E70" s="405"/>
@@ -8806,7 +8874,7 @@
     </row>
     <row r="71" spans="1:13" s="402" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="397"/>
-      <c r="B71" s="480"/>
+      <c r="B71" s="479"/>
       <c r="C71" s="411"/>
       <c r="D71" s="412"/>
       <c r="E71" s="413"/>
@@ -9039,10 +9107,10 @@
         <v>336</v>
       </c>
       <c r="B1" s="289"/>
-      <c r="C1" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D1" s="596"/>
+      <c r="C1" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1" s="595"/>
       <c r="E1" s="285"/>
     </row>
     <row r="2" spans="1:5" s="286" customFormat="1">
@@ -9050,8 +9118,8 @@
         <v>330</v>
       </c>
       <c r="B2" s="289"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594"/>
+      <c r="D2" s="595"/>
       <c r="E2" s="285"/>
     </row>
     <row r="3" spans="1:5" s="286" customFormat="1">
@@ -9082,10 +9150,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="293"/>
-      <c r="B6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="602"/>
+      <c r="B6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="601"/>
       <c r="D6" s="294"/>
       <c r="E6" s="290"/>
     </row>
@@ -9123,7 +9191,7 @@
         <v>333</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C10" s="3">
         <v>175</v>
@@ -9138,7 +9206,7 @@
         <v>333</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C11" s="3">
         <v>3750</v>
@@ -9153,7 +9221,7 @@
         <v>334</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C12" s="3">
         <v>200</v>
@@ -9165,10 +9233,10 @@
     </row>
     <row r="13" spans="1:5" s="308" customFormat="1" ht="30">
       <c r="A13" s="80" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C13" s="3">
         <v>300</v>
@@ -9183,7 +9251,7 @@
         <v>333</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C14" s="3">
         <v>660</v>
@@ -9198,7 +9266,7 @@
         <v>334</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C15" s="3">
         <v>263960</v>
@@ -9210,10 +9278,10 @@
     </row>
     <row r="16" spans="1:5" s="308" customFormat="1" ht="30">
       <c r="A16" s="80" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C16" s="3">
         <v>65820</v>
@@ -9225,10 +9293,10 @@
     </row>
     <row r="17" spans="1:9" s="308" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C17" s="3">
         <v>1600</v>
@@ -9240,10 +9308,10 @@
     </row>
     <row r="18" spans="1:9" s="308" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C18" s="3">
         <v>33250</v>
@@ -9267,7 +9335,7 @@
         <v>331</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C20" s="3">
         <v>3050</v>
@@ -9287,8 +9355,8 @@
       <c r="E21" s="307"/>
     </row>
     <row r="22" spans="1:9" s="310" customFormat="1" ht="15">
-      <c r="A22" s="534"/>
-      <c r="B22" s="534"/>
+      <c r="A22" s="533"/>
+      <c r="B22" s="533"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="309"/>
@@ -9320,8 +9388,8 @@
       <c r="E25" s="335"/>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="534"/>
-      <c r="B26" s="534"/>
+      <c r="A26" s="533"/>
+      <c r="B26" s="533"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
@@ -9371,7 +9439,7 @@
     <row r="34" spans="1:9">
       <c r="A34" s="336"/>
       <c r="B34" s="336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D34" s="338"/>
       <c r="E34" s="337"/>
@@ -9434,20 +9502,20 @@
         <v>305</v>
       </c>
       <c r="B1" s="63"/>
-      <c r="C1" s="603" t="s">
+      <c r="C1" s="602" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="603"/>
+      <c r="D1" s="602"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="61" t="s">
         <v>276</v>
       </c>
       <c r="B2" s="63"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="63" t="s">
@@ -9478,10 +9546,10 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="602"/>
+      <c r="B6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="601"/>
       <c r="D6" s="38"/>
       <c r="E6" s="4"/>
     </row>
@@ -9641,7 +9709,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="482"/>
+      <c r="D19" s="481"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="13">
@@ -9650,10 +9718,10 @@
       <c r="B20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="536">
+      <c r="C20" s="535">
         <v>29337.5</v>
       </c>
-      <c r="D20" s="536">
+      <c r="D20" s="535">
         <v>29337.5</v>
       </c>
     </row>
@@ -9664,10 +9732,10 @@
       <c r="B21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="535">
+      <c r="C21" s="534">
         <v>1465.4</v>
       </c>
-      <c r="D21" s="535">
+      <c r="D21" s="534">
         <v>1465.4</v>
       </c>
     </row>
@@ -9679,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="484"/>
+      <c r="D22" s="483"/>
     </row>
     <row r="25" spans="1:9" s="16" customFormat="1" ht="12.75"/>
     <row r="26" spans="1:9">
@@ -9772,10 +9840,10 @@
         <v>341</v>
       </c>
       <c r="B1" s="64"/>
-      <c r="C1" s="601" t="s">
+      <c r="C1" s="600" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="601"/>
+      <c r="D1" s="600"/>
       <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1">
@@ -9783,10 +9851,10 @@
         <v>342</v>
       </c>
       <c r="B2" s="64"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
       <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1">
@@ -9817,10 +9885,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="67"/>
-      <c r="B6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="602"/>
+      <c r="B6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="601"/>
       <c r="D6" s="68"/>
       <c r="E6" s="76"/>
     </row>
@@ -10046,10 +10114,10 @@
         <v>221</v>
       </c>
       <c r="B1" s="99"/>
-      <c r="C1" s="604" t="s">
+      <c r="C1" s="603" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="604"/>
+      <c r="D1" s="603"/>
       <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5">
@@ -10058,10 +10126,10 @@
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="64"/>
-      <c r="D2" s="595">
+      <c r="D2" s="594">
         <v>42004</v>
       </c>
-      <c r="E2" s="596"/>
+      <c r="E2" s="595"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="96"/>
@@ -10085,10 +10153,10 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C5" s="602"/>
+      <c r="B5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="601"/>
       <c r="D5" s="38"/>
       <c r="E5" s="93"/>
     </row>
@@ -10148,11 +10216,11 @@
         <v>189</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="467">
+      <c r="C11" s="466">
         <f>C32+C15+C14</f>
         <v>31004.39</v>
       </c>
-      <c r="D11" s="467">
+      <c r="D11" s="466">
         <f>D32+D15+D14</f>
         <v>0.39</v>
       </c>
@@ -10210,8 +10278,8 @@
       <c r="B15" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="466"/>
-      <c r="D15" s="466">
+      <c r="C15" s="465"/>
+      <c r="D15" s="465">
         <v>0</v>
       </c>
       <c r="E15" s="91"/>
@@ -10523,10 +10591,10 @@
         <v>194</v>
       </c>
       <c r="B44" s="35"/>
-      <c r="C44" s="467">
+      <c r="C44" s="466">
         <v>43404.39</v>
       </c>
-      <c r="D44" s="467">
+      <c r="D44" s="466">
         <v>0.39</v>
       </c>
       <c r="E44" s="91"/>
@@ -10545,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="91"/>
-      <c r="F45" s="470"/>
+      <c r="F45" s="469"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="36">
@@ -10557,21 +10625,21 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="91"/>
-      <c r="F46" s="470"/>
+      <c r="F46" s="469"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="36">
         <v>3210</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C47" s="222"/>
       <c r="D47" s="222"/>
       <c r="E47" s="91"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="473"/>
+      <c r="I47" s="472"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="36">
@@ -10661,7 +10729,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="91"/>
-      <c r="N55" s="470"/>
+      <c r="N55" s="469"/>
     </row>
     <row r="56" spans="1:14" ht="45">
       <c r="A56" s="36">
@@ -10728,7 +10796,7 @@
       <c r="C61" s="222"/>
       <c r="D61" s="222"/>
       <c r="E61" s="91"/>
-      <c r="G61" s="473"/>
+      <c r="G61" s="472"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="24"/>
@@ -11009,7 +11077,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -11018,10 +11086,10 @@
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
-      <c r="I1" s="601" t="s">
+      <c r="I1" s="600" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="601"/>
+      <c r="J1" s="600"/>
       <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11">
@@ -11035,10 +11103,10 @@
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
       <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11">
@@ -11088,10 +11156,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="64"/>
-      <c r="B6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="602"/>
+      <c r="B6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="601"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="104"/>
@@ -11181,17 +11249,17 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="39" customHeight="1">
-      <c r="A10" s="548"/>
-      <c r="B10" s="549" t="s">
-        <v>496</v>
-      </c>
-      <c r="C10" s="550" t="s">
-        <v>614</v>
-      </c>
-      <c r="D10" s="551" t="s">
+      <c r="A10" s="547"/>
+      <c r="B10" s="548" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="549" t="s">
+        <v>612</v>
+      </c>
+      <c r="D10" s="550" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="552">
+      <c r="E10" s="551">
         <v>38920</v>
       </c>
       <c r="F10" s="373">
@@ -11209,30 +11277,30 @@
       <c r="J10" s="135"/>
       <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="1:11" s="544" customFormat="1" ht="39" customHeight="1">
+    <row r="11" spans="1:11" s="543" customFormat="1" ht="39" customHeight="1">
       <c r="A11" s="372"/>
-      <c r="B11" s="539"/>
-      <c r="C11" s="540"/>
-      <c r="D11" s="540"/>
-      <c r="E11" s="541"/>
-      <c r="F11" s="542"/>
-      <c r="G11" s="542"/>
-      <c r="H11" s="542"/>
-      <c r="I11" s="542"/>
-      <c r="J11" s="543"/>
+      <c r="B11" s="538"/>
+      <c r="C11" s="539"/>
+      <c r="D11" s="539"/>
+      <c r="E11" s="540"/>
+      <c r="F11" s="541"/>
+      <c r="G11" s="541"/>
+      <c r="H11" s="541"/>
+      <c r="I11" s="541"/>
+      <c r="J11" s="542"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" s="544" customFormat="1" ht="15.75">
+    <row r="12" spans="1:11" s="543" customFormat="1" ht="15.75">
       <c r="A12" s="144"/>
-      <c r="B12" s="539"/>
-      <c r="C12" s="540"/>
-      <c r="D12" s="540"/>
-      <c r="E12" s="545"/>
-      <c r="F12" s="546"/>
-      <c r="G12" s="546"/>
-      <c r="H12" s="546"/>
-      <c r="I12" s="546"/>
-      <c r="J12" s="547"/>
+      <c r="B12" s="538"/>
+      <c r="C12" s="539"/>
+      <c r="D12" s="539"/>
+      <c r="E12" s="544"/>
+      <c r="F12" s="545"/>
+      <c r="G12" s="545"/>
+      <c r="H12" s="545"/>
+      <c r="I12" s="545"/>
+      <c r="J12" s="546"/>
       <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11">
@@ -11274,7 +11342,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="90"/>
       <c r="B16" s="90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -11449,10 +11517,10 @@
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
-      <c r="F2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="G2" s="596"/>
+      <c r="F2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="G2" s="595"/>
       <c r="H2" s="139"/>
     </row>
     <row r="3" spans="1:8">
@@ -11481,10 +11549,10 @@
     <row r="5" spans="1:8">
       <c r="A5" s="194"/>
       <c r="B5" s="194"/>
-      <c r="C5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="602"/>
+      <c r="C5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="601"/>
       <c r="E5" s="194"/>
       <c r="F5" s="194"/>
       <c r="G5" s="194"/>
@@ -11550,7 +11618,7 @@
       <c r="A10" s="143">
         <v>1</v>
       </c>
-      <c r="B10" s="553">
+      <c r="B10" s="552">
         <v>41807</v>
       </c>
       <c r="C10" s="147">
@@ -11563,7 +11631,7 @@
         <v>218</v>
       </c>
       <c r="F10" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G10" s="149">
         <f>IF(ISBLANK(B10),"",G9+C10-D10)</f>
@@ -11575,7 +11643,7 @@
       <c r="A11" s="143">
         <v>2</v>
       </c>
-      <c r="B11" s="502">
+      <c r="B11" s="501">
         <v>41808</v>
       </c>
       <c r="C11" s="147">
@@ -11588,7 +11656,7 @@
         <v>218</v>
       </c>
       <c r="F11" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G11" s="149">
         <f t="shared" ref="G11:G19" si="0">IF(ISBLANK(B11),"",G10+C11-D11)</f>
@@ -11600,7 +11668,7 @@
       <c r="A12" s="143">
         <v>3</v>
       </c>
-      <c r="B12" s="502">
+      <c r="B12" s="501">
         <v>41809</v>
       </c>
       <c r="C12" s="147">
@@ -11613,7 +11681,7 @@
         <v>218</v>
       </c>
       <c r="F12" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G12" s="149">
         <f t="shared" si="0"/>
@@ -11625,7 +11693,7 @@
       <c r="A13" s="143">
         <v>4</v>
       </c>
-      <c r="B13" s="502">
+      <c r="B13" s="501">
         <v>41810</v>
       </c>
       <c r="C13" s="147">
@@ -11638,7 +11706,7 @@
         <v>218</v>
       </c>
       <c r="F13" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G13" s="149">
         <f t="shared" si="0"/>
@@ -11650,7 +11718,7 @@
       <c r="A14" s="143">
         <v>5</v>
       </c>
-      <c r="B14" s="502">
+      <c r="B14" s="501">
         <v>41813</v>
       </c>
       <c r="C14" s="147">
@@ -11663,7 +11731,7 @@
         <v>218</v>
       </c>
       <c r="F14" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G14" s="149">
         <f t="shared" si="0"/>
@@ -11675,7 +11743,7 @@
       <c r="A15" s="143">
         <v>6</v>
       </c>
-      <c r="B15" s="502">
+      <c r="B15" s="501">
         <v>41815</v>
       </c>
       <c r="C15" s="147">
@@ -11688,7 +11756,7 @@
         <v>218</v>
       </c>
       <c r="F15" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G15" s="149">
         <f t="shared" si="0"/>
@@ -11700,7 +11768,7 @@
       <c r="A16" s="143">
         <v>7</v>
       </c>
-      <c r="B16" s="502">
+      <c r="B16" s="501">
         <v>41820</v>
       </c>
       <c r="C16" s="147">
@@ -11713,7 +11781,7 @@
         <v>218</v>
       </c>
       <c r="F16" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G16" s="149">
         <f t="shared" si="0"/>
@@ -11725,7 +11793,7 @@
       <c r="A17" s="143">
         <v>8</v>
       </c>
-      <c r="B17" s="502">
+      <c r="B17" s="501">
         <v>41828</v>
       </c>
       <c r="C17" s="147">
@@ -11738,7 +11806,7 @@
         <v>218</v>
       </c>
       <c r="F17" s="148" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G17" s="149">
         <f t="shared" si="0"/>
@@ -11748,7 +11816,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="143"/>
-      <c r="B18" s="502"/>
+      <c r="B18" s="501"/>
       <c r="C18" s="147"/>
       <c r="D18" s="148"/>
       <c r="E18" s="148"/>
@@ -11761,7 +11829,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="143"/>
-      <c r="B19" s="502"/>
+      <c r="B19" s="501"/>
       <c r="C19" s="147"/>
       <c r="D19" s="148"/>
       <c r="E19" s="148"/>
@@ -11774,67 +11842,67 @@
     </row>
     <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="143"/>
-      <c r="B20" s="439"/>
+      <c r="B20" s="438"/>
       <c r="C20" s="147"/>
       <c r="D20" s="148"/>
       <c r="E20" s="148"/>
-      <c r="F20" s="440"/>
-      <c r="G20" s="442"/>
+      <c r="F20" s="439"/>
+      <c r="G20" s="441"/>
       <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="143"/>
-      <c r="B21" s="439"/>
+      <c r="B21" s="438"/>
       <c r="C21" s="148"/>
       <c r="D21" s="148"/>
       <c r="E21" s="148"/>
-      <c r="F21" s="440"/>
-      <c r="G21" s="441"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="440"/>
       <c r="H21" s="91"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="143"/>
-      <c r="B22" s="439"/>
+      <c r="B22" s="438"/>
       <c r="C22" s="148"/>
       <c r="D22" s="148"/>
       <c r="E22" s="148"/>
       <c r="F22" s="148"/>
-      <c r="G22" s="441"/>
+      <c r="G22" s="440"/>
       <c r="H22" s="91"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="143"/>
-      <c r="B23" s="439"/>
+      <c r="B23" s="438"/>
       <c r="C23" s="148"/>
       <c r="D23" s="148"/>
       <c r="E23" s="148"/>
       <c r="F23" s="148"/>
-      <c r="G23" s="441"/>
+      <c r="G23" s="440"/>
       <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="143"/>
-      <c r="B24" s="439"/>
+      <c r="B24" s="438"/>
       <c r="C24" s="148"/>
       <c r="D24" s="148"/>
       <c r="E24" s="148"/>
-      <c r="F24" s="440"/>
-      <c r="G24" s="442"/>
+      <c r="F24" s="439"/>
+      <c r="G24" s="441"/>
       <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="143"/>
-      <c r="B25" s="439"/>
+      <c r="B25" s="438"/>
       <c r="C25" s="147"/>
       <c r="D25" s="148"/>
       <c r="E25" s="148"/>
-      <c r="F25" s="440"/>
-      <c r="G25" s="441"/>
+      <c r="F25" s="439"/>
+      <c r="G25" s="440"/>
       <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="143"/>
-      <c r="B26" s="439"/>
+      <c r="B26" s="438"/>
       <c r="C26" s="147"/>
       <c r="D26" s="148"/>
       <c r="E26" s="148"/>
@@ -11844,7 +11912,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="143"/>
-      <c r="B27" s="439"/>
+      <c r="B27" s="438"/>
       <c r="C27" s="147"/>
       <c r="D27" s="148"/>
       <c r="E27" s="148"/>
@@ -11854,7 +11922,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="143"/>
-      <c r="B28" s="439"/>
+      <c r="B28" s="438"/>
       <c r="C28" s="147"/>
       <c r="D28" s="148"/>
       <c r="E28" s="148"/>
@@ -11864,7 +11932,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="143"/>
-      <c r="B29" s="439"/>
+      <c r="B29" s="438"/>
       <c r="C29" s="147"/>
       <c r="D29" s="148"/>
       <c r="E29" s="148"/>
@@ -11874,137 +11942,137 @@
     </row>
     <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="143"/>
-      <c r="B30" s="439"/>
+      <c r="B30" s="438"/>
       <c r="C30" s="150"/>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
-      <c r="F30" s="440"/>
+      <c r="F30" s="439"/>
       <c r="G30" s="149"/>
       <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="143"/>
-      <c r="B31" s="439"/>
+      <c r="B31" s="438"/>
       <c r="C31" s="150"/>
-      <c r="D31" s="443"/>
+      <c r="D31" s="442"/>
       <c r="E31" s="151"/>
-      <c r="F31" s="444"/>
-      <c r="G31" s="441"/>
+      <c r="F31" s="443"/>
+      <c r="G31" s="440"/>
       <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="143"/>
-      <c r="B32" s="439"/>
+      <c r="B32" s="438"/>
       <c r="C32" s="150"/>
-      <c r="D32" s="443"/>
+      <c r="D32" s="442"/>
       <c r="E32" s="151"/>
-      <c r="F32" s="444"/>
-      <c r="G32" s="441"/>
+      <c r="F32" s="443"/>
+      <c r="G32" s="440"/>
       <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="143"/>
-      <c r="B33" s="439"/>
+      <c r="B33" s="438"/>
       <c r="C33" s="150"/>
-      <c r="D33" s="443"/>
+      <c r="D33" s="442"/>
       <c r="E33" s="151"/>
-      <c r="F33" s="444"/>
-      <c r="G33" s="441"/>
+      <c r="F33" s="443"/>
+      <c r="G33" s="440"/>
       <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="143"/>
-      <c r="B34" s="439"/>
+      <c r="B34" s="438"/>
       <c r="C34" s="150"/>
       <c r="D34" s="151"/>
       <c r="E34" s="151"/>
-      <c r="F34" s="440"/>
-      <c r="G34" s="442"/>
+      <c r="F34" s="439"/>
+      <c r="G34" s="441"/>
       <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="143"/>
-      <c r="B35" s="439"/>
+      <c r="B35" s="438"/>
       <c r="C35" s="150"/>
       <c r="D35" s="151"/>
       <c r="E35" s="151"/>
       <c r="F35" s="151"/>
-      <c r="G35" s="441"/>
+      <c r="G35" s="440"/>
       <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="143"/>
-      <c r="B36" s="439"/>
+      <c r="B36" s="438"/>
       <c r="C36" s="150"/>
       <c r="D36" s="151"/>
       <c r="E36" s="151"/>
       <c r="F36" s="151"/>
-      <c r="G36" s="441"/>
+      <c r="G36" s="440"/>
       <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="143"/>
-      <c r="B37" s="439"/>
+      <c r="B37" s="438"/>
       <c r="C37" s="150"/>
       <c r="D37" s="151"/>
       <c r="E37" s="151"/>
       <c r="F37" s="151"/>
-      <c r="G37" s="441"/>
+      <c r="G37" s="440"/>
       <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="143"/>
-      <c r="B38" s="439"/>
+      <c r="B38" s="438"/>
       <c r="C38" s="150"/>
       <c r="D38" s="151"/>
       <c r="E38" s="151"/>
-      <c r="F38" s="440"/>
-      <c r="G38" s="442"/>
+      <c r="F38" s="439"/>
+      <c r="G38" s="441"/>
       <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="143"/>
-      <c r="B39" s="439"/>
+      <c r="B39" s="438"/>
       <c r="C39" s="150"/>
       <c r="D39" s="151"/>
       <c r="E39" s="151"/>
-      <c r="F39" s="445"/>
-      <c r="G39" s="442"/>
+      <c r="F39" s="444"/>
+      <c r="G39" s="441"/>
       <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="143"/>
-      <c r="B40" s="439"/>
+      <c r="B40" s="438"/>
       <c r="C40" s="150"/>
       <c r="D40" s="151"/>
       <c r="E40" s="151"/>
-      <c r="F40" s="444"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="443"/>
+      <c r="G40" s="440"/>
       <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1">
       <c r="A41" s="143"/>
-      <c r="B41" s="439"/>
+      <c r="B41" s="438"/>
       <c r="C41" s="150"/>
       <c r="D41" s="151"/>
       <c r="E41" s="151"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="441"/>
+      <c r="F41" s="439"/>
+      <c r="G41" s="440"/>
       <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="143"/>
-      <c r="B42" s="439"/>
+      <c r="B42" s="438"/>
       <c r="C42" s="150"/>
       <c r="D42" s="151"/>
       <c r="E42" s="151"/>
-      <c r="F42" s="444"/>
-      <c r="G42" s="441"/>
+      <c r="F42" s="443"/>
+      <c r="G42" s="440"/>
       <c r="H42" s="91"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="143"/>
-      <c r="B43" s="439"/>
+      <c r="B43" s="438"/>
       <c r="C43" s="150"/>
       <c r="D43" s="151"/>
       <c r="E43" s="151"/>
@@ -12126,10 +12194,10 @@
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
-      <c r="I1" s="603" t="s">
+      <c r="I1" s="602" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="603"/>
+      <c r="J1" s="602"/>
       <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="15">
@@ -12143,10 +12211,10 @@
       <c r="F2" s="117"/>
       <c r="G2" s="118"/>
       <c r="H2" s="118"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
       <c r="K2" s="122"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="15">
@@ -12180,10 +12248,10 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15">
-      <c r="A5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="B5" s="602"/>
+      <c r="A5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5" s="601"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -12209,25 +12277,25 @@
     </row>
     <row r="7" spans="1:12" ht="45">
       <c r="A7" s="111"/>
-      <c r="B7" s="605" t="s">
+      <c r="B7" s="604" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="605" t="s">
+      <c r="C7" s="604"/>
+      <c r="D7" s="604" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="605"/>
-      <c r="F7" s="605" t="s">
+      <c r="E7" s="604"/>
+      <c r="F7" s="604" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="605"/>
+      <c r="G7" s="604"/>
       <c r="H7" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="I7" s="605" t="s">
+      <c r="I7" s="604" t="s">
         <v>220</v>
       </c>
-      <c r="J7" s="605"/>
+      <c r="J7" s="604"/>
       <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:12" ht="15">
@@ -12329,7 +12397,7 @@
         <f>SUM(I11:I13)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="472">
+      <c r="J10" s="471">
         <f>C10+E10</f>
         <v>0</v>
       </c>
@@ -12349,7 +12417,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="472">
+      <c r="J11" s="471">
         <f>C11+E11</f>
         <v>0</v>
       </c>
@@ -12387,7 +12455,7 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="111">
         <f>SUM(B15:B16)</f>
@@ -13180,10 +13248,10 @@
       <c r="E2" s="116"/>
       <c r="F2" s="116"/>
       <c r="G2" s="124"/>
-      <c r="H2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="I2" s="596"/>
+      <c r="H2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="I2" s="595"/>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
@@ -13196,8 +13264,8 @@
       <c r="E3" s="116"/>
       <c r="F3" s="116"/>
       <c r="G3" s="124"/>
-      <c r="H3" s="595"/>
-      <c r="I3" s="596"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="595"/>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -13224,10 +13292,10 @@
         <f>'ფორმა N2'!A5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C5" s="602"/>
+      <c r="B5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="601"/>
       <c r="D5" s="98"/>
       <c r="E5" s="126"/>
       <c r="F5" s="127"/>
@@ -13315,7 +13383,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="468"/>
+      <c r="G9" s="467"/>
       <c r="H9" s="19"/>
       <c r="I9" s="122"/>
     </row>
@@ -13714,10 +13782,10 @@
       <c r="F2" s="116"/>
       <c r="G2" s="116"/>
       <c r="H2" s="122"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="15">
       <c r="A3" s="116"/>
@@ -13753,10 +13821,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="98"/>
-      <c r="C5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="602"/>
+      <c r="C5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="601"/>
       <c r="E5" s="126"/>
       <c r="F5" s="127"/>
       <c r="G5" s="127"/>
@@ -14256,10 +14324,10 @@
       <c r="F1" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="H1" s="596"/>
+      <c r="G1" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="H1" s="595"/>
     </row>
     <row r="2" spans="1:8" s="170" customFormat="1">
       <c r="A2" s="171" t="s">
@@ -14297,10 +14365,10 @@
     </row>
     <row r="5" spans="1:8" s="170" customFormat="1" ht="13.5">
       <c r="A5" s="173"/>
-      <c r="B5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C5" s="602"/>
+      <c r="B5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="601"/>
       <c r="D5" s="173"/>
       <c r="E5" s="173"/>
       <c r="F5" s="173"/>
@@ -14559,10 +14627,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14582,10 +14650,10 @@
         <v>303</v>
       </c>
       <c r="B1" s="288"/>
-      <c r="C1" s="598" t="s">
+      <c r="C1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="598"/>
+      <c r="D1" s="597"/>
       <c r="E1" s="344"/>
     </row>
     <row r="2" spans="1:7">
@@ -14593,10 +14661,10 @@
         <v>138</v>
       </c>
       <c r="B2" s="288"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
       <c r="E2" s="344"/>
     </row>
     <row r="3" spans="1:7">
@@ -14620,15 +14688,15 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="590"/>
-      <c r="C5" s="590"/>
-      <c r="D5" s="590"/>
+      <c r="B5" s="589"/>
+      <c r="C5" s="589"/>
+      <c r="D5" s="589"/>
       <c r="E5" s="344"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="377"/>
-      <c r="B6" s="591" t="s">
-        <v>758</v>
+      <c r="B6" s="590" t="s">
+        <v>756</v>
       </c>
       <c r="C6" s="377"/>
       <c r="D6" s="362"/>
@@ -14717,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="344"/>
-      <c r="G12" s="460"/>
+      <c r="G12" s="459"/>
     </row>
     <row r="13" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="278" t="s">
@@ -14763,7 +14831,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="278" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C16" s="332">
         <v>52176</v>
@@ -14859,7 +14927,7 @@
         <v>249</v>
       </c>
       <c r="B24" s="305" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C24" s="332">
         <v>10000</v>
@@ -14869,7 +14937,7 @@
       </c>
       <c r="E24" s="344"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="273">
         <v>1.2</v>
       </c>
@@ -14880,153 +14948,142 @@
       <c r="D25" s="324"/>
       <c r="E25" s="344"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="305" t="s">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="607" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="422" t="s">
-        <v>310</v>
+      <c r="B26" s="608" t="s">
+        <v>313</v>
       </c>
       <c r="C26" s="420"/>
       <c r="D26" s="420"/>
       <c r="E26" s="344"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="278" t="s">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="609" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="278" t="s">
-        <v>313</v>
+      <c r="B27" s="610" t="s">
+        <v>311</v>
       </c>
       <c r="C27" s="420"/>
       <c r="D27" s="420"/>
       <c r="E27" s="344"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="319" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="319" t="s">
-        <v>311</v>
+    <row r="28" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A28" s="609" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="610" t="s">
+        <v>314</v>
       </c>
       <c r="C28" s="332"/>
       <c r="D28" s="332"/>
       <c r="E28" s="344"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="319" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="319" t="s">
-        <v>314</v>
+    <row r="29" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A29" s="609" t="s">
+        <v>757</v>
+      </c>
+      <c r="B29" s="610" t="s">
+        <v>312</v>
       </c>
       <c r="C29" s="332"/>
       <c r="D29" s="332"/>
       <c r="E29" s="344"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="319" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="319" t="s">
-        <v>312</v>
+    <row r="30" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A30" s="609" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="610" t="s">
+        <v>457</v>
       </c>
       <c r="C30" s="332"/>
       <c r="D30" s="332"/>
       <c r="E30" s="344"/>
     </row>
-    <row r="31" spans="1:6" ht="27">
-      <c r="A31" s="305" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="422" t="s">
-        <v>456</v>
-      </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="344"/>
+    <row r="31" spans="1:6">
+      <c r="D31" s="422"/>
+      <c r="E31" s="423"/>
+      <c r="F31" s="422"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="423"/>
-      <c r="E32" s="424"/>
-      <c r="F32" s="423"/>
+      <c r="A32" s="424"/>
+      <c r="D32" s="422"/>
+      <c r="E32" s="423"/>
+      <c r="F32" s="422"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="425"/>
-      <c r="D33" s="423"/>
-      <c r="E33" s="424"/>
-      <c r="F33" s="423"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="423"/>
+      <c r="F33" s="422"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="D34" s="423"/>
-      <c r="E34" s="424"/>
-      <c r="F34" s="423"/>
+      <c r="D34" s="422"/>
+      <c r="E34" s="423"/>
+      <c r="F34" s="422"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="D35" s="423"/>
-      <c r="E35" s="424"/>
-      <c r="F35" s="423"/>
+      <c r="A35" s="336" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="422"/>
+      <c r="E35" s="423"/>
+      <c r="F35" s="422"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="336" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="423"/>
-      <c r="E36" s="424"/>
-      <c r="F36" s="423"/>
+      <c r="D36" s="422"/>
+      <c r="E36" s="425"/>
+      <c r="F36" s="425"/>
+      <c r="G36" s="337"/>
+      <c r="H36" s="337"/>
+      <c r="I36" s="337"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="D37" s="423"/>
-      <c r="E37" s="426"/>
-      <c r="F37" s="426"/>
+      <c r="D37" s="346"/>
+      <c r="E37" s="425"/>
+      <c r="F37" s="425"/>
       <c r="G37" s="337"/>
       <c r="H37" s="337"/>
       <c r="I37" s="337"/>
     </row>
     <row r="38" spans="1:9">
+      <c r="A38" s="337"/>
+      <c r="B38" s="336" t="s">
+        <v>467</v>
+      </c>
       <c r="D38" s="346"/>
-      <c r="E38" s="426"/>
-      <c r="F38" s="426"/>
+      <c r="E38" s="425"/>
+      <c r="F38" s="425"/>
       <c r="G38" s="337"/>
       <c r="H38" s="337"/>
       <c r="I38" s="337"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="337"/>
-      <c r="B39" s="336" t="s">
-        <v>468</v>
+      <c r="B39" s="291" t="s">
+        <v>268</v>
       </c>
       <c r="D39" s="346"/>
-      <c r="E39" s="426"/>
-      <c r="F39" s="426"/>
+      <c r="E39" s="425"/>
+      <c r="F39" s="425"/>
       <c r="G39" s="337"/>
       <c r="H39" s="337"/>
       <c r="I39" s="337"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="337"/>
-      <c r="B40" s="291" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="346"/>
-      <c r="E40" s="426"/>
-      <c r="F40" s="426"/>
-      <c r="G40" s="337"/>
-      <c r="H40" s="337"/>
-      <c r="I40" s="337"/>
-    </row>
-    <row r="41" spans="1:9" s="337" customFormat="1">
-      <c r="B41" s="339" t="s">
+    <row r="40" spans="1:9" s="337" customFormat="1">
+      <c r="B40" s="339" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="426"/>
-      <c r="E41" s="426"/>
-      <c r="F41" s="426"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="D42" s="423"/>
-      <c r="E42" s="424"/>
-      <c r="F42" s="423"/>
+      <c r="D40" s="425"/>
+      <c r="E40" s="425"/>
+      <c r="F40" s="425"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="D41" s="422"/>
+      <c r="E41" s="423"/>
+      <c r="F41" s="422"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15096,10 +15153,10 @@
       <c r="H2" s="116"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
-      <c r="K2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="L2" s="596"/>
+      <c r="K2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="L2" s="595"/>
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="116"/>
@@ -15135,10 +15192,10 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C5" s="602"/>
+      <c r="B5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="601"/>
       <c r="D5" s="67"/>
       <c r="E5" s="195"/>
       <c r="F5" s="196"/>
@@ -15232,895 +15289,895 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
-      <c r="A9" s="554">
+      <c r="A9" s="553">
         <v>1</v>
       </c>
-      <c r="B9" s="555" t="s">
+      <c r="B9" s="554" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" s="555" t="s">
         <v>616</v>
       </c>
-      <c r="C9" s="555" t="s">
+      <c r="E9" s="555">
+        <v>180</v>
+      </c>
+      <c r="F9" s="555">
+        <v>1770</v>
+      </c>
+      <c r="G9" s="555">
+        <v>1018000728</v>
+      </c>
+      <c r="H9" s="554" t="s">
         <v>617</v>
       </c>
-      <c r="D9" s="556" t="s">
+      <c r="I9" s="554" t="s">
         <v>618</v>
-      </c>
-      <c r="E9" s="556">
-        <v>180</v>
-      </c>
-      <c r="F9" s="556">
-        <v>1770</v>
-      </c>
-      <c r="G9" s="556">
-        <v>1018000728</v>
-      </c>
-      <c r="H9" s="555" t="s">
-        <v>619</v>
-      </c>
-      <c r="I9" s="555" t="s">
-        <v>620</v>
       </c>
       <c r="J9" s="279"/>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="554">
+      <c r="A10" s="553">
         <v>2</v>
       </c>
-      <c r="B10" s="555" t="s">
+      <c r="B10" s="554" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D10" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E10" s="555">
+        <v>70</v>
+      </c>
+      <c r="F10" s="555">
+        <v>880</v>
+      </c>
+      <c r="G10" s="555">
+        <v>59001006437</v>
+      </c>
+      <c r="H10" s="554" t="s">
         <v>621</v>
       </c>
-      <c r="C10" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D10" s="556" t="s">
+      <c r="I10" s="554" t="s">
         <v>622</v>
-      </c>
-      <c r="E10" s="556">
-        <v>70</v>
-      </c>
-      <c r="F10" s="556">
-        <v>880</v>
-      </c>
-      <c r="G10" s="556">
-        <v>59001006437</v>
-      </c>
-      <c r="H10" s="555" t="s">
-        <v>623</v>
-      </c>
-      <c r="I10" s="555" t="s">
-        <v>624</v>
       </c>
       <c r="J10" s="279"/>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="554">
+      <c r="A11" s="553">
         <v>3</v>
       </c>
-      <c r="B11" s="555" t="s">
+      <c r="B11" s="554" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E11" s="555">
+        <v>30</v>
+      </c>
+      <c r="F11" s="555">
+        <v>250</v>
+      </c>
+      <c r="G11" s="556" t="s">
+        <v>624</v>
+      </c>
+      <c r="H11" s="554" t="s">
         <v>625</v>
       </c>
-      <c r="C11" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D11" s="556" t="s">
-        <v>622</v>
-      </c>
-      <c r="E11" s="556">
-        <v>30</v>
-      </c>
-      <c r="F11" s="556">
-        <v>250</v>
-      </c>
-      <c r="G11" s="557" t="s">
+      <c r="I11" s="554" t="s">
         <v>626</v>
-      </c>
-      <c r="H11" s="555" t="s">
-        <v>627</v>
-      </c>
-      <c r="I11" s="555" t="s">
-        <v>628</v>
       </c>
       <c r="J11" s="279"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="554">
+      <c r="A12" s="553">
         <v>4</v>
       </c>
-      <c r="B12" s="555" t="s">
+      <c r="B12" s="554" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D12" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" s="555">
+        <v>205</v>
+      </c>
+      <c r="F12" s="555">
+        <v>400</v>
+      </c>
+      <c r="G12" s="555">
+        <v>1024000582</v>
+      </c>
+      <c r="H12" s="554" t="s">
+        <v>628</v>
+      </c>
+      <c r="I12" s="554" t="s">
         <v>629</v>
-      </c>
-      <c r="C12" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D12" s="556" t="s">
-        <v>622</v>
-      </c>
-      <c r="E12" s="556">
-        <v>205</v>
-      </c>
-      <c r="F12" s="556">
-        <v>400</v>
-      </c>
-      <c r="G12" s="556">
-        <v>1024000582</v>
-      </c>
-      <c r="H12" s="555" t="s">
-        <v>630</v>
-      </c>
-      <c r="I12" s="555" t="s">
-        <v>631</v>
       </c>
       <c r="J12" s="279"/>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="554">
+      <c r="A13" s="553">
         <v>5</v>
       </c>
-      <c r="B13" s="555" t="s">
+      <c r="B13" s="554" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E13" s="555">
+        <v>40</v>
+      </c>
+      <c r="F13" s="555">
+        <v>375</v>
+      </c>
+      <c r="G13" s="555">
+        <v>43001012012</v>
+      </c>
+      <c r="H13" s="554" t="s">
+        <v>631</v>
+      </c>
+      <c r="I13" s="554" t="s">
         <v>632</v>
-      </c>
-      <c r="C13" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D13" s="556" t="s">
-        <v>622</v>
-      </c>
-      <c r="E13" s="556">
-        <v>40</v>
-      </c>
-      <c r="F13" s="556">
-        <v>375</v>
-      </c>
-      <c r="G13" s="556">
-        <v>43001012012</v>
-      </c>
-      <c r="H13" s="555" t="s">
-        <v>633</v>
-      </c>
-      <c r="I13" s="555" t="s">
-        <v>634</v>
       </c>
       <c r="J13" s="280"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="558">
+      <c r="A14" s="557">
         <v>6</v>
       </c>
-      <c r="B14" s="559" t="s">
+      <c r="B14" s="558" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" s="558" t="s">
+        <v>615</v>
+      </c>
+      <c r="D14" s="559" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="559">
+        <v>50</v>
+      </c>
+      <c r="F14" s="559">
+        <v>375</v>
+      </c>
+      <c r="G14" s="559">
+        <v>6100405562</v>
+      </c>
+      <c r="H14" s="558" t="s">
+        <v>634</v>
+      </c>
+      <c r="I14" s="558" t="s">
         <v>635</v>
-      </c>
-      <c r="C14" s="559" t="s">
-        <v>617</v>
-      </c>
-      <c r="D14" s="560" t="s">
-        <v>622</v>
-      </c>
-      <c r="E14" s="560">
-        <v>50</v>
-      </c>
-      <c r="F14" s="560">
-        <v>375</v>
-      </c>
-      <c r="G14" s="560">
-        <v>6100405562</v>
-      </c>
-      <c r="H14" s="559" t="s">
-        <v>636</v>
-      </c>
-      <c r="I14" s="559" t="s">
-        <v>637</v>
       </c>
       <c r="J14" s="280"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="561">
+      <c r="A15" s="560">
         <v>7</v>
       </c>
-      <c r="B15" s="562" t="s">
+      <c r="B15" s="561" t="s">
+        <v>636</v>
+      </c>
+      <c r="C15" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D15" s="555" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="555">
+        <v>95.67</v>
+      </c>
+      <c r="F15" s="555">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="556" t="s">
         <v>638</v>
       </c>
-      <c r="C15" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D15" s="556" t="s">
+      <c r="H15" s="554" t="s">
         <v>639</v>
       </c>
-      <c r="E15" s="556">
-        <v>95.67</v>
-      </c>
-      <c r="F15" s="556">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="557" t="s">
+      <c r="I15" s="554" t="s">
         <v>640</v>
-      </c>
-      <c r="H15" s="555" t="s">
-        <v>641</v>
-      </c>
-      <c r="I15" s="555" t="s">
-        <v>642</v>
       </c>
       <c r="J15" s="192"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="30">
-      <c r="A16" s="563">
+      <c r="A16" s="562">
         <v>8</v>
       </c>
-      <c r="B16" s="564" t="s">
+      <c r="B16" s="563" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" s="564" t="s">
+        <v>615</v>
+      </c>
+      <c r="D16" s="565">
+        <v>33</v>
+      </c>
+      <c r="E16" s="565">
+        <v>45</v>
+      </c>
+      <c r="F16" s="565">
+        <v>500</v>
+      </c>
+      <c r="G16" s="566" t="s">
+        <v>642</v>
+      </c>
+      <c r="H16" s="564" t="s">
         <v>643</v>
       </c>
-      <c r="C16" s="565" t="s">
-        <v>617</v>
-      </c>
-      <c r="D16" s="566">
-        <v>33</v>
-      </c>
-      <c r="E16" s="566">
-        <v>45</v>
-      </c>
-      <c r="F16" s="566">
-        <v>500</v>
-      </c>
-      <c r="G16" s="567" t="s">
+      <c r="I16" s="564" t="s">
         <v>644</v>
-      </c>
-      <c r="H16" s="565" t="s">
-        <v>645</v>
-      </c>
-      <c r="I16" s="565" t="s">
-        <v>646</v>
       </c>
       <c r="J16" s="192"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="30">
-      <c r="A17" s="554">
+      <c r="A17" s="553">
         <v>9</v>
       </c>
-      <c r="B17" s="555" t="s">
+      <c r="B17" s="554" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" s="555">
+        <v>36</v>
+      </c>
+      <c r="E17" s="567">
+        <v>23.3</v>
+      </c>
+      <c r="F17" s="567">
+        <v>500</v>
+      </c>
+      <c r="G17" s="568" t="s">
+        <v>646</v>
+      </c>
+      <c r="H17" s="554" t="s">
         <v>647</v>
       </c>
-      <c r="C17" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D17" s="556">
-        <v>36</v>
-      </c>
-      <c r="E17" s="568">
-        <v>23.3</v>
-      </c>
-      <c r="F17" s="568">
-        <v>500</v>
-      </c>
-      <c r="G17" s="569" t="s">
+      <c r="I17" s="554" t="s">
         <v>648</v>
-      </c>
-      <c r="H17" s="555" t="s">
-        <v>649</v>
-      </c>
-      <c r="I17" s="555" t="s">
-        <v>650</v>
       </c>
       <c r="J17" s="192"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="30">
-      <c r="A18" s="558">
+      <c r="A18" s="557">
         <v>10</v>
       </c>
-      <c r="B18" s="555" t="s">
+      <c r="B18" s="554" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="555">
+        <v>36</v>
+      </c>
+      <c r="E18" s="567">
+        <v>23</v>
+      </c>
+      <c r="F18" s="567">
+        <v>492</v>
+      </c>
+      <c r="G18" s="568" t="s">
+        <v>650</v>
+      </c>
+      <c r="H18" s="554" t="s">
+        <v>582</v>
+      </c>
+      <c r="I18" s="554" t="s">
         <v>651</v>
-      </c>
-      <c r="C18" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D18" s="556">
-        <v>36</v>
-      </c>
-      <c r="E18" s="568">
-        <v>23</v>
-      </c>
-      <c r="F18" s="568">
-        <v>492</v>
-      </c>
-      <c r="G18" s="569" t="s">
-        <v>652</v>
-      </c>
-      <c r="H18" s="555" t="s">
-        <v>583</v>
-      </c>
-      <c r="I18" s="555" t="s">
-        <v>653</v>
       </c>
       <c r="J18" s="192"/>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="A19" s="561">
+      <c r="A19" s="560">
         <v>11</v>
       </c>
-      <c r="B19" s="555" t="s">
+      <c r="B19" s="554" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D19" s="555">
+        <v>32</v>
+      </c>
+      <c r="E19" s="567">
+        <v>30</v>
+      </c>
+      <c r="F19" s="567">
+        <v>700</v>
+      </c>
+      <c r="G19" s="568" t="s">
+        <v>653</v>
+      </c>
+      <c r="H19" s="554" t="s">
         <v>654</v>
       </c>
-      <c r="C19" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D19" s="556">
-        <v>32</v>
-      </c>
-      <c r="E19" s="568">
-        <v>30</v>
-      </c>
-      <c r="F19" s="568">
-        <v>700</v>
-      </c>
-      <c r="G19" s="569" t="s">
+      <c r="I19" s="554" t="s">
         <v>655</v>
-      </c>
-      <c r="H19" s="555" t="s">
-        <v>656</v>
-      </c>
-      <c r="I19" s="555" t="s">
-        <v>657</v>
       </c>
       <c r="J19" s="192"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="563">
+      <c r="A20" s="562">
         <v>12</v>
       </c>
-      <c r="B20" s="555" t="s">
+      <c r="B20" s="554" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="555">
+        <v>30</v>
+      </c>
+      <c r="E20" s="567">
+        <v>50</v>
+      </c>
+      <c r="F20" s="567">
+        <v>700</v>
+      </c>
+      <c r="G20" s="567">
+        <v>61001046111</v>
+      </c>
+      <c r="H20" s="554" t="s">
+        <v>657</v>
+      </c>
+      <c r="I20" s="554" t="s">
         <v>658</v>
-      </c>
-      <c r="C20" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D20" s="556">
-        <v>30</v>
-      </c>
-      <c r="E20" s="568">
-        <v>50</v>
-      </c>
-      <c r="F20" s="568">
-        <v>700</v>
-      </c>
-      <c r="G20" s="568">
-        <v>61001046111</v>
-      </c>
-      <c r="H20" s="555" t="s">
-        <v>659</v>
-      </c>
-      <c r="I20" s="555" t="s">
-        <v>660</v>
       </c>
       <c r="J20" s="192"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="A21" s="554">
+      <c r="A21" s="553">
         <v>13</v>
       </c>
-      <c r="B21" s="555" t="s">
+      <c r="B21" s="554" t="s">
+        <v>659</v>
+      </c>
+      <c r="C21" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="555">
+        <v>30</v>
+      </c>
+      <c r="E21" s="567">
+        <v>81.3</v>
+      </c>
+      <c r="F21" s="567">
+        <v>300</v>
+      </c>
+      <c r="G21" s="568" t="s">
+        <v>660</v>
+      </c>
+      <c r="H21" s="554" t="s">
         <v>661</v>
       </c>
-      <c r="C21" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D21" s="556">
-        <v>30</v>
-      </c>
-      <c r="E21" s="568">
-        <v>81.3</v>
-      </c>
-      <c r="F21" s="568">
-        <v>300</v>
-      </c>
-      <c r="G21" s="569" t="s">
+      <c r="I21" s="554" t="s">
         <v>662</v>
-      </c>
-      <c r="H21" s="555" t="s">
-        <v>663</v>
-      </c>
-      <c r="I21" s="555" t="s">
-        <v>664</v>
       </c>
       <c r="J21" s="192"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="558">
+      <c r="A22" s="557">
         <v>14</v>
       </c>
-      <c r="B22" s="555" t="s">
+      <c r="B22" s="554" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D22" s="555">
+        <v>30</v>
+      </c>
+      <c r="E22" s="567">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="F22" s="567">
+        <v>420</v>
+      </c>
+      <c r="G22" s="568" t="s">
+        <v>664</v>
+      </c>
+      <c r="H22" s="554" t="s">
         <v>665</v>
       </c>
-      <c r="C22" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D22" s="556">
-        <v>30</v>
-      </c>
-      <c r="E22" s="568">
-        <v>34.619999999999997</v>
-      </c>
-      <c r="F22" s="568">
-        <v>420</v>
-      </c>
-      <c r="G22" s="569" t="s">
+      <c r="I22" s="554" t="s">
         <v>666</v>
-      </c>
-      <c r="H22" s="555" t="s">
-        <v>667</v>
-      </c>
-      <c r="I22" s="555" t="s">
-        <v>668</v>
       </c>
       <c r="J22" s="192"/>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="30">
-      <c r="A23" s="561">
+      <c r="A23" s="560">
         <v>15</v>
       </c>
-      <c r="B23" s="555" t="s">
+      <c r="B23" s="554" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D23" s="555">
+        <v>32</v>
+      </c>
+      <c r="E23" s="567">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="F23" s="567">
+        <v>757</v>
+      </c>
+      <c r="G23" s="567">
+        <v>61001077096</v>
+      </c>
+      <c r="H23" s="554" t="s">
+        <v>668</v>
+      </c>
+      <c r="I23" s="554" t="s">
         <v>669</v>
-      </c>
-      <c r="C23" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D23" s="556">
-        <v>32</v>
-      </c>
-      <c r="E23" s="568">
-        <v>65.239999999999995</v>
-      </c>
-      <c r="F23" s="568">
-        <v>757</v>
-      </c>
-      <c r="G23" s="568">
-        <v>61001077096</v>
-      </c>
-      <c r="H23" s="555" t="s">
-        <v>670</v>
-      </c>
-      <c r="I23" s="555" t="s">
-        <v>671</v>
       </c>
       <c r="J23" s="192"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="563">
+      <c r="A24" s="562">
         <v>16</v>
       </c>
-      <c r="B24" s="555" t="s">
+      <c r="B24" s="554" t="s">
+        <v>670</v>
+      </c>
+      <c r="C24" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D24" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E24" s="567">
+        <v>60</v>
+      </c>
+      <c r="F24" s="567">
+        <v>375</v>
+      </c>
+      <c r="G24" s="568" t="s">
+        <v>671</v>
+      </c>
+      <c r="H24" s="554" t="s">
         <v>672</v>
       </c>
-      <c r="C24" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D24" s="556" t="s">
-        <v>622</v>
-      </c>
-      <c r="E24" s="568">
-        <v>60</v>
-      </c>
-      <c r="F24" s="568">
-        <v>375</v>
-      </c>
-      <c r="G24" s="569" t="s">
+      <c r="I24" s="554" t="s">
         <v>673</v>
-      </c>
-      <c r="H24" s="555" t="s">
-        <v>674</v>
-      </c>
-      <c r="I24" s="555" t="s">
-        <v>675</v>
       </c>
       <c r="J24" s="192"/>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="30">
-      <c r="A25" s="554">
+      <c r="A25" s="553">
         <v>17</v>
       </c>
-      <c r="B25" s="555" t="s">
+      <c r="B25" s="554" t="s">
+        <v>674</v>
+      </c>
+      <c r="C25" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D25" s="555" t="s">
+        <v>620</v>
+      </c>
+      <c r="E25" s="555">
+        <v>60</v>
+      </c>
+      <c r="F25" s="555">
+        <v>625</v>
+      </c>
+      <c r="G25" s="556" t="s">
+        <v>675</v>
+      </c>
+      <c r="H25" s="554" t="s">
         <v>676</v>
       </c>
-      <c r="C25" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D25" s="556" t="s">
-        <v>622</v>
-      </c>
-      <c r="E25" s="556">
-        <v>60</v>
-      </c>
-      <c r="F25" s="556">
-        <v>625</v>
-      </c>
-      <c r="G25" s="557" t="s">
+      <c r="I25" s="554" t="s">
         <v>677</v>
-      </c>
-      <c r="H25" s="555" t="s">
-        <v>678</v>
-      </c>
-      <c r="I25" s="555" t="s">
-        <v>679</v>
       </c>
       <c r="J25" s="192"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="A26" s="554">
+      <c r="A26" s="553">
         <v>17</v>
       </c>
-      <c r="B26" s="555" t="s">
+      <c r="B26" s="554" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D26" s="555" t="s">
+        <v>679</v>
+      </c>
+      <c r="E26" s="567">
+        <v>36</v>
+      </c>
+      <c r="F26" s="567">
+        <v>180</v>
+      </c>
+      <c r="G26" s="568" t="s">
         <v>680</v>
       </c>
-      <c r="C26" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D26" s="556" t="s">
+      <c r="H26" s="554" t="s">
         <v>681</v>
       </c>
-      <c r="E26" s="568">
-        <v>36</v>
-      </c>
-      <c r="F26" s="568">
-        <v>180</v>
-      </c>
-      <c r="G26" s="569" t="s">
+      <c r="I26" s="554" t="s">
         <v>682</v>
-      </c>
-      <c r="H26" s="555" t="s">
-        <v>683</v>
-      </c>
-      <c r="I26" s="555" t="s">
-        <v>684</v>
       </c>
       <c r="J26" s="192"/>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="A27" s="554">
+      <c r="A27" s="553">
         <v>18</v>
       </c>
-      <c r="B27" s="555" t="s">
+      <c r="B27" s="554" t="s">
+        <v>683</v>
+      </c>
+      <c r="C27" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" s="555" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" s="567">
+        <v>50</v>
+      </c>
+      <c r="F27" s="567">
+        <v>300</v>
+      </c>
+      <c r="G27" s="568"/>
+      <c r="H27" s="554" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D27" s="556" t="s">
+      <c r="I27" s="554" t="s">
         <v>686</v>
-      </c>
-      <c r="E27" s="568">
-        <v>50</v>
-      </c>
-      <c r="F27" s="568">
-        <v>300</v>
-      </c>
-      <c r="G27" s="569"/>
-      <c r="H27" s="555" t="s">
-        <v>687</v>
-      </c>
-      <c r="I27" s="555" t="s">
-        <v>688</v>
       </c>
       <c r="J27" s="192"/>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="30">
-      <c r="A28" s="554">
+      <c r="A28" s="553">
         <v>19</v>
       </c>
-      <c r="B28" s="555" t="s">
+      <c r="B28" s="554" t="s">
+        <v>687</v>
+      </c>
+      <c r="C28" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D28" s="555" t="s">
+        <v>684</v>
+      </c>
+      <c r="E28" s="567">
+        <v>42</v>
+      </c>
+      <c r="F28" s="567">
+        <v>300</v>
+      </c>
+      <c r="G28" s="567">
+        <v>56001013083</v>
+      </c>
+      <c r="H28" s="554" t="s">
+        <v>688</v>
+      </c>
+      <c r="I28" s="554" t="s">
         <v>689</v>
-      </c>
-      <c r="C28" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D28" s="556" t="s">
-        <v>686</v>
-      </c>
-      <c r="E28" s="568">
-        <v>42</v>
-      </c>
-      <c r="F28" s="568">
-        <v>300</v>
-      </c>
-      <c r="G28" s="568">
-        <v>56001013083</v>
-      </c>
-      <c r="H28" s="555" t="s">
-        <v>690</v>
-      </c>
-      <c r="I28" s="555" t="s">
-        <v>691</v>
       </c>
       <c r="J28" s="192"/>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="554">
+      <c r="A29" s="553">
         <v>20</v>
       </c>
-      <c r="B29" s="555" t="s">
+      <c r="B29" s="554" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" s="555" t="s">
+        <v>691</v>
+      </c>
+      <c r="E29" s="555">
+        <v>60</v>
+      </c>
+      <c r="F29" s="555">
+        <v>500</v>
+      </c>
+      <c r="G29" s="556" t="s">
         <v>692</v>
       </c>
-      <c r="C29" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D29" s="556" t="s">
+      <c r="H29" s="554" t="s">
         <v>693</v>
       </c>
-      <c r="E29" s="556">
-        <v>60</v>
-      </c>
-      <c r="F29" s="556">
-        <v>500</v>
-      </c>
-      <c r="G29" s="557" t="s">
+      <c r="I29" s="554" t="s">
         <v>694</v>
-      </c>
-      <c r="H29" s="555" t="s">
-        <v>695</v>
-      </c>
-      <c r="I29" s="555" t="s">
-        <v>696</v>
       </c>
       <c r="J29" s="192"/>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="554">
+      <c r="A30" s="553">
         <v>21</v>
       </c>
-      <c r="B30" s="555" t="s">
+      <c r="B30" s="554" t="s">
+        <v>695</v>
+      </c>
+      <c r="C30" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="555" t="s">
+        <v>696</v>
+      </c>
+      <c r="E30" s="567">
+        <v>100</v>
+      </c>
+      <c r="F30" s="567">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="567">
+        <v>60003003713</v>
+      </c>
+      <c r="H30" s="554" t="s">
         <v>697</v>
       </c>
-      <c r="C30" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D30" s="556" t="s">
+      <c r="I30" s="554" t="s">
         <v>698</v>
-      </c>
-      <c r="E30" s="568">
-        <v>100</v>
-      </c>
-      <c r="F30" s="568">
-        <v>1500</v>
-      </c>
-      <c r="G30" s="568">
-        <v>60003003713</v>
-      </c>
-      <c r="H30" s="555" t="s">
-        <v>699</v>
-      </c>
-      <c r="I30" s="555" t="s">
-        <v>700</v>
       </c>
       <c r="J30" s="192"/>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="A31" s="554">
+      <c r="A31" s="553">
         <v>22</v>
       </c>
-      <c r="B31" s="555" t="s">
+      <c r="B31" s="554" t="s">
+        <v>699</v>
+      </c>
+      <c r="C31" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D31" s="555">
+        <v>26</v>
+      </c>
+      <c r="E31" s="567">
+        <v>24.9</v>
+      </c>
+      <c r="F31" s="567">
+        <v>200</v>
+      </c>
+      <c r="G31" s="555">
+        <v>61005002273</v>
+      </c>
+      <c r="H31" s="554" t="s">
+        <v>700</v>
+      </c>
+      <c r="I31" s="554" t="s">
         <v>701</v>
-      </c>
-      <c r="C31" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D31" s="556">
-        <v>26</v>
-      </c>
-      <c r="E31" s="568">
-        <v>24.9</v>
-      </c>
-      <c r="F31" s="568">
-        <v>200</v>
-      </c>
-      <c r="G31" s="556">
-        <v>61005002273</v>
-      </c>
-      <c r="H31" s="555" t="s">
-        <v>702</v>
-      </c>
-      <c r="I31" s="555" t="s">
-        <v>703</v>
       </c>
       <c r="J31" s="192"/>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="45">
-      <c r="A32" s="554">
+      <c r="A32" s="553">
         <v>23</v>
       </c>
-      <c r="B32" s="555" t="s">
+      <c r="B32" s="554" t="s">
+        <v>702</v>
+      </c>
+      <c r="C32" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D32" s="555">
+        <v>21</v>
+      </c>
+      <c r="E32" s="567">
+        <v>20</v>
+      </c>
+      <c r="F32" s="567">
+        <v>300</v>
+      </c>
+      <c r="G32" s="567">
+        <v>61001003275</v>
+      </c>
+      <c r="H32" s="554" t="s">
+        <v>703</v>
+      </c>
+      <c r="I32" s="554" t="s">
         <v>704</v>
-      </c>
-      <c r="C32" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D32" s="556">
-        <v>21</v>
-      </c>
-      <c r="E32" s="568">
-        <v>20</v>
-      </c>
-      <c r="F32" s="568">
-        <v>300</v>
-      </c>
-      <c r="G32" s="568">
-        <v>61001003275</v>
-      </c>
-      <c r="H32" s="555" t="s">
-        <v>705</v>
-      </c>
-      <c r="I32" s="555" t="s">
-        <v>706</v>
       </c>
       <c r="J32" s="192"/>
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" ht="45">
-      <c r="A33" s="554">
+      <c r="A33" s="553">
         <v>24</v>
       </c>
-      <c r="B33" s="570" t="s">
-        <v>707</v>
-      </c>
-      <c r="C33" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D33" s="556">
+      <c r="B33" s="569" t="s">
+        <v>705</v>
+      </c>
+      <c r="C33" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D33" s="555">
         <v>41</v>
       </c>
-      <c r="E33" s="568">
+      <c r="E33" s="567">
         <v>70</v>
       </c>
-      <c r="F33" s="568">
+      <c r="F33" s="567">
         <v>800</v>
       </c>
-      <c r="G33" s="568">
+      <c r="G33" s="567">
         <v>61006039429</v>
       </c>
-      <c r="H33" s="555" t="s">
-        <v>705</v>
-      </c>
-      <c r="I33" s="555" t="s">
-        <v>708</v>
+      <c r="H33" s="554" t="s">
+        <v>703</v>
+      </c>
+      <c r="I33" s="554" t="s">
+        <v>706</v>
       </c>
       <c r="J33" s="192"/>
       <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="30">
-      <c r="A34" s="554">
+      <c r="A34" s="553">
         <v>25</v>
       </c>
-      <c r="B34" s="555" t="s">
+      <c r="B34" s="554" t="s">
+        <v>707</v>
+      </c>
+      <c r="C34" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D34" s="555" t="s">
+        <v>708</v>
+      </c>
+      <c r="E34" s="567">
+        <v>35</v>
+      </c>
+      <c r="F34" s="567">
+        <v>187.5</v>
+      </c>
+      <c r="G34" s="567">
+        <v>58001020883</v>
+      </c>
+      <c r="H34" s="554" t="s">
         <v>709</v>
       </c>
-      <c r="C34" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D34" s="556" t="s">
+      <c r="I34" s="554" t="s">
         <v>710</v>
-      </c>
-      <c r="E34" s="568">
-        <v>35</v>
-      </c>
-      <c r="F34" s="568">
-        <v>187.5</v>
-      </c>
-      <c r="G34" s="568">
-        <v>58001020883</v>
-      </c>
-      <c r="H34" s="555" t="s">
-        <v>711</v>
-      </c>
-      <c r="I34" s="555" t="s">
-        <v>712</v>
       </c>
       <c r="J34" s="192"/>
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="554">
+      <c r="A35" s="553">
         <v>26</v>
       </c>
-      <c r="B35" s="555" t="s">
-        <v>713</v>
-      </c>
-      <c r="C35" s="555" t="s">
-        <v>617</v>
-      </c>
-      <c r="D35" s="556" t="s">
-        <v>686</v>
-      </c>
-      <c r="E35" s="568">
+      <c r="B35" s="554" t="s">
+        <v>711</v>
+      </c>
+      <c r="C35" s="554" t="s">
+        <v>615</v>
+      </c>
+      <c r="D35" s="555" t="s">
+        <v>684</v>
+      </c>
+      <c r="E35" s="567">
         <v>101</v>
       </c>
-      <c r="F35" s="568">
+      <c r="F35" s="567">
         <v>1000</v>
       </c>
-      <c r="G35" s="556">
+      <c r="G35" s="555">
         <v>47001015354</v>
       </c>
-      <c r="H35" s="555" t="s">
-        <v>711</v>
-      </c>
-      <c r="I35" s="555" t="s">
-        <v>714</v>
+      <c r="H35" s="554" t="s">
+        <v>709</v>
+      </c>
+      <c r="I35" s="554" t="s">
+        <v>712</v>
       </c>
       <c r="J35" s="192"/>
       <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="15">
-      <c r="A36" s="554">
+      <c r="A36" s="553">
         <v>27</v>
       </c>
-      <c r="B36" s="555"/>
-      <c r="C36" s="555"/>
-      <c r="D36" s="556"/>
-      <c r="E36" s="568"/>
-      <c r="F36" s="568"/>
-      <c r="G36" s="568"/>
-      <c r="H36" s="555"/>
-      <c r="I36" s="555"/>
+      <c r="B36" s="554"/>
+      <c r="C36" s="554"/>
+      <c r="D36" s="555"/>
+      <c r="E36" s="567"/>
+      <c r="F36" s="567"/>
+      <c r="G36" s="567"/>
+      <c r="H36" s="554"/>
+      <c r="I36" s="554"/>
       <c r="J36" s="192"/>
       <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="15">
-      <c r="A37" s="571"/>
-      <c r="B37" s="571"/>
-      <c r="C37" s="572"/>
-      <c r="D37" s="571"/>
-      <c r="E37" s="572"/>
-      <c r="F37" s="571"/>
-      <c r="G37" s="572"/>
-      <c r="H37" s="573"/>
-      <c r="I37" s="574"/>
+      <c r="A37" s="570"/>
+      <c r="B37" s="570"/>
+      <c r="C37" s="571"/>
+      <c r="D37" s="570"/>
+      <c r="E37" s="571"/>
+      <c r="F37" s="570"/>
+      <c r="G37" s="571"/>
+      <c r="H37" s="572"/>
+      <c r="I37" s="573"/>
       <c r="J37" s="192"/>
       <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="575">
+      <c r="A38" s="574">
         <v>14</v>
       </c>
-      <c r="B38" s="576"/>
-      <c r="C38" s="576"/>
-      <c r="D38" s="576"/>
-      <c r="E38" s="576"/>
-      <c r="F38" s="576"/>
-      <c r="G38" s="576"/>
-      <c r="H38" s="577"/>
-      <c r="I38" s="577"/>
+      <c r="B38" s="575"/>
+      <c r="C38" s="575"/>
+      <c r="D38" s="575"/>
+      <c r="E38" s="575"/>
+      <c r="F38" s="575"/>
+      <c r="G38" s="575"/>
+      <c r="H38" s="576"/>
+      <c r="I38" s="576"/>
       <c r="J38" s="192"/>
       <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11" ht="15">
-      <c r="A39" s="575">
+      <c r="A39" s="574">
         <v>15</v>
       </c>
-      <c r="B39" s="576"/>
-      <c r="C39" s="576"/>
-      <c r="D39" s="576"/>
-      <c r="E39" s="576"/>
-      <c r="F39" s="576"/>
-      <c r="G39" s="576"/>
-      <c r="H39" s="577"/>
-      <c r="I39" s="577"/>
+      <c r="B39" s="575"/>
+      <c r="C39" s="575"/>
+      <c r="D39" s="575"/>
+      <c r="E39" s="575"/>
+      <c r="F39" s="575"/>
+      <c r="G39" s="575"/>
+      <c r="H39" s="576"/>
+      <c r="I39" s="576"/>
       <c r="J39" s="192"/>
       <c r="K39" s="19"/>
     </row>
@@ -16719,10 +16776,10 @@
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="M2" s="596"/>
+      <c r="L2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="M2" s="595"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="116"/>
@@ -16762,7 +16819,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
@@ -17319,10 +17376,10 @@
       <c r="F2" s="116"/>
       <c r="G2" s="116"/>
       <c r="H2" s="122"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="116"/>
@@ -17355,8 +17412,8 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="606"/>
-      <c r="C5" s="606"/>
+      <c r="B5" s="605"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="196"/>
       <c r="E5" s="196"/>
       <c r="F5" s="196"/>
@@ -17366,10 +17423,10 @@
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="15">
       <c r="A6" s="120"/>
-      <c r="B6" s="607" t="s">
-        <v>758</v>
-      </c>
-      <c r="C6" s="607"/>
+      <c r="B6" s="606" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="606"/>
       <c r="D6" s="116"/>
       <c r="E6" s="116"/>
       <c r="F6" s="116"/>
@@ -17810,7 +17867,7 @@
       <c r="G1" s="288"/>
       <c r="H1" s="288"/>
       <c r="I1" s="211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J1" s="374"/>
     </row>
@@ -17825,10 +17882,10 @@
       <c r="F2" s="288"/>
       <c r="G2" s="288"/>
       <c r="H2" s="288"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="381"/>
@@ -17860,10 +17917,10 @@
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="383"/>
       <c r="B5" s="378"/>
-      <c r="C5" s="607" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="607"/>
+      <c r="C5" s="606" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="606"/>
       <c r="E5" s="378"/>
       <c r="F5" s="378"/>
       <c r="G5" s="378"/>
@@ -17896,174 +17953,174 @@
       <c r="J7" s="362"/>
     </row>
     <row r="8" spans="1:14" ht="54.75" customHeight="1">
-      <c r="A8" s="578" t="s">
+      <c r="A8" s="577" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="579" t="s">
+      <c r="B8" s="578" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="580" t="s">
+      <c r="C8" s="579" t="s">
         <v>441</v>
       </c>
-      <c r="D8" s="580" t="s">
+      <c r="D8" s="579" t="s">
         <v>442</v>
       </c>
-      <c r="E8" s="580" t="s">
+      <c r="E8" s="579" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="580" t="s">
+      <c r="F8" s="579" t="s">
         <v>401</v>
       </c>
-      <c r="G8" s="580" t="s">
+      <c r="G8" s="579" t="s">
         <v>402</v>
       </c>
-      <c r="H8" s="580" t="s">
+      <c r="H8" s="579" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="580" t="s">
+      <c r="I8" s="579" t="s">
         <v>403</v>
       </c>
       <c r="J8" s="362"/>
     </row>
-    <row r="9" spans="1:14" s="582" customFormat="1">
-      <c r="A9" s="581"/>
-      <c r="J9" s="583"/>
+    <row r="9" spans="1:14" s="581" customFormat="1">
+      <c r="A9" s="580"/>
+      <c r="J9" s="582"/>
       <c r="K9" s="379"/>
       <c r="L9" s="379"/>
       <c r="M9" s="379"/>
       <c r="N9" s="379"/>
     </row>
-    <row r="10" spans="1:14" s="582" customFormat="1">
-      <c r="A10" s="581"/>
-      <c r="J10" s="583"/>
+    <row r="10" spans="1:14" s="581" customFormat="1">
+      <c r="A10" s="580"/>
+      <c r="J10" s="582"/>
       <c r="K10" s="379"/>
       <c r="L10" s="379"/>
       <c r="M10" s="379"/>
       <c r="N10" s="379"/>
     </row>
-    <row r="11" spans="1:14" s="582" customFormat="1">
-      <c r="A11" s="581"/>
-      <c r="J11" s="583"/>
+    <row r="11" spans="1:14" s="581" customFormat="1">
+      <c r="A11" s="580"/>
+      <c r="J11" s="582"/>
       <c r="K11" s="379"/>
       <c r="L11" s="379"/>
       <c r="M11" s="379"/>
       <c r="N11" s="379"/>
     </row>
-    <row r="12" spans="1:14" s="582" customFormat="1">
-      <c r="A12" s="581"/>
-      <c r="J12" s="583"/>
+    <row r="12" spans="1:14" s="581" customFormat="1">
+      <c r="A12" s="580"/>
+      <c r="J12" s="582"/>
       <c r="K12" s="379"/>
       <c r="L12" s="379"/>
       <c r="M12" s="379"/>
       <c r="N12" s="379"/>
     </row>
-    <row r="13" spans="1:14" s="582" customFormat="1">
-      <c r="A13" s="581"/>
-      <c r="J13" s="583"/>
+    <row r="13" spans="1:14" s="581" customFormat="1">
+      <c r="A13" s="580"/>
+      <c r="J13" s="582"/>
       <c r="K13" s="379"/>
       <c r="L13" s="379"/>
       <c r="M13" s="379"/>
       <c r="N13" s="379"/>
     </row>
-    <row r="14" spans="1:14" s="582" customFormat="1">
-      <c r="A14" s="581"/>
-      <c r="J14" s="583"/>
+    <row r="14" spans="1:14" s="581" customFormat="1">
+      <c r="A14" s="580"/>
+      <c r="J14" s="582"/>
       <c r="K14" s="379"/>
       <c r="L14" s="379"/>
       <c r="M14" s="379"/>
       <c r="N14" s="379"/>
     </row>
-    <row r="15" spans="1:14" s="582" customFormat="1">
-      <c r="A15" s="581"/>
-      <c r="J15" s="583"/>
+    <row r="15" spans="1:14" s="581" customFormat="1">
+      <c r="A15" s="580"/>
+      <c r="J15" s="582"/>
       <c r="K15" s="379"/>
       <c r="L15" s="379"/>
       <c r="M15" s="379"/>
       <c r="N15" s="379"/>
     </row>
-    <row r="16" spans="1:14" s="582" customFormat="1">
-      <c r="A16" s="581"/>
-      <c r="J16" s="583"/>
+    <row r="16" spans="1:14" s="581" customFormat="1">
+      <c r="A16" s="580"/>
+      <c r="J16" s="582"/>
       <c r="K16" s="379"/>
       <c r="L16" s="379"/>
       <c r="M16" s="379"/>
       <c r="N16" s="379"/>
     </row>
-    <row r="17" spans="1:14" s="582" customFormat="1">
-      <c r="A17" s="581"/>
-      <c r="J17" s="583"/>
+    <row r="17" spans="1:14" s="581" customFormat="1">
+      <c r="A17" s="580"/>
+      <c r="J17" s="582"/>
       <c r="K17" s="379"/>
       <c r="L17" s="379"/>
       <c r="M17" s="379"/>
       <c r="N17" s="379"/>
     </row>
-    <row r="18" spans="1:14" s="582" customFormat="1">
-      <c r="A18" s="581"/>
-      <c r="J18" s="583"/>
+    <row r="18" spans="1:14" s="581" customFormat="1">
+      <c r="A18" s="580"/>
+      <c r="J18" s="582"/>
       <c r="K18" s="379"/>
       <c r="L18" s="379"/>
       <c r="M18" s="379"/>
       <c r="N18" s="379"/>
     </row>
-    <row r="19" spans="1:14" s="582" customFormat="1">
-      <c r="A19" s="581"/>
-      <c r="J19" s="583"/>
+    <row r="19" spans="1:14" s="581" customFormat="1">
+      <c r="A19" s="580"/>
+      <c r="J19" s="582"/>
       <c r="K19" s="379"/>
       <c r="L19" s="379"/>
       <c r="M19" s="379"/>
       <c r="N19" s="379"/>
     </row>
-    <row r="20" spans="1:14" s="582" customFormat="1">
-      <c r="A20" s="581"/>
-      <c r="J20" s="583"/>
+    <row r="20" spans="1:14" s="581" customFormat="1">
+      <c r="A20" s="580"/>
+      <c r="J20" s="582"/>
       <c r="K20" s="379"/>
       <c r="L20" s="379"/>
       <c r="M20" s="379"/>
       <c r="N20" s="379"/>
     </row>
-    <row r="21" spans="1:14" s="582" customFormat="1">
-      <c r="A21" s="581"/>
-      <c r="J21" s="583"/>
+    <row r="21" spans="1:14" s="581" customFormat="1">
+      <c r="A21" s="580"/>
+      <c r="J21" s="582"/>
       <c r="K21" s="379"/>
       <c r="L21" s="379"/>
       <c r="M21" s="379"/>
       <c r="N21" s="379"/>
     </row>
-    <row r="22" spans="1:14" s="582" customFormat="1">
-      <c r="A22" s="581"/>
-      <c r="J22" s="583"/>
+    <row r="22" spans="1:14" s="581" customFormat="1">
+      <c r="A22" s="580"/>
+      <c r="J22" s="582"/>
       <c r="K22" s="379"/>
       <c r="L22" s="379"/>
       <c r="M22" s="379"/>
       <c r="N22" s="379"/>
     </row>
-    <row r="23" spans="1:14" s="582" customFormat="1">
-      <c r="A23" s="581"/>
-      <c r="J23" s="583"/>
+    <row r="23" spans="1:14" s="581" customFormat="1">
+      <c r="A23" s="580"/>
+      <c r="J23" s="582"/>
       <c r="K23" s="379"/>
       <c r="L23" s="379"/>
       <c r="M23" s="379"/>
       <c r="N23" s="379"/>
     </row>
-    <row r="24" spans="1:14" s="582" customFormat="1">
-      <c r="A24" s="581"/>
-      <c r="J24" s="583"/>
+    <row r="24" spans="1:14" s="581" customFormat="1">
+      <c r="A24" s="580"/>
+      <c r="J24" s="582"/>
       <c r="K24" s="379"/>
       <c r="L24" s="379"/>
       <c r="M24" s="379"/>
       <c r="N24" s="379"/>
     </row>
-    <row r="25" spans="1:14" s="582" customFormat="1">
-      <c r="A25" s="581"/>
-      <c r="J25" s="583"/>
+    <row r="25" spans="1:14" s="581" customFormat="1">
+      <c r="A25" s="580"/>
+      <c r="J25" s="582"/>
       <c r="K25" s="379"/>
       <c r="L25" s="379"/>
       <c r="M25" s="379"/>
       <c r="N25" s="379"/>
     </row>
-    <row r="26" spans="1:14" s="582" customFormat="1">
-      <c r="A26" s="581"/>
-      <c r="J26" s="583"/>
+    <row r="26" spans="1:14" s="581" customFormat="1">
+      <c r="A26" s="580"/>
+      <c r="J26" s="582"/>
       <c r="K26" s="379"/>
       <c r="L26" s="379"/>
       <c r="M26" s="379"/>
@@ -18133,7 +18190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -18172,10 +18229,10 @@
       </c>
       <c r="K1" s="211"/>
       <c r="L1" s="211"/>
-      <c r="M1" s="595" t="s">
-        <v>489</v>
-      </c>
-      <c r="N1" s="596"/>
+      <c r="M1" s="594" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" s="595"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="171" t="s">
@@ -18231,10 +18288,10 @@
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="173"/>
       <c r="B5" s="173"/>
-      <c r="C5" s="607" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="607"/>
+      <c r="C5" s="606" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="606"/>
       <c r="E5" s="174"/>
       <c r="F5" s="174"/>
       <c r="G5" s="174"/>
@@ -22739,19 +22796,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="343" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="455" customWidth="1"/>
+    <col min="2" max="2" width="80" style="454" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="343" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="343" customWidth="1"/>
-    <col min="5" max="5" width="0.42578125" style="456" customWidth="1"/>
+    <col min="5" max="5" width="0.42578125" style="455" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="343"/>
   </cols>
   <sheetData>
@@ -22759,49 +22816,49 @@
       <c r="A1" s="283" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="446"/>
-      <c r="C1" s="598" t="s">
+      <c r="B1" s="445"/>
+      <c r="C1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="598"/>
-      <c r="E1" s="447"/>
+      <c r="D1" s="597"/>
+      <c r="E1" s="446"/>
     </row>
     <row r="2" spans="1:12" s="286" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="288" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
-      <c r="E2" s="447"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
+      <c r="E2" s="446"/>
     </row>
     <row r="3" spans="1:12" s="286" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="288"/>
-      <c r="B3" s="446"/>
+      <c r="B3" s="445"/>
       <c r="C3" s="287"/>
       <c r="D3" s="287"/>
-      <c r="E3" s="447"/>
+      <c r="E3" s="446"/>
     </row>
     <row r="4" spans="1:12" s="291" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="289" t="str">
         <f>'ფორმა N2'!A4</f>
         <v>ანგარიშვალდებული პირის დასახელება:</v>
       </c>
-      <c r="B4" s="448"/>
+      <c r="B4" s="447"/>
       <c r="C4" s="288"/>
       <c r="D4" s="288"/>
       <c r="E4" s="344"/>
       <c r="L4" s="286"/>
     </row>
     <row r="5" spans="1:12" s="291" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="449" t="str">
+      <c r="A5" s="448" t="str">
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="591" t="s">
-        <v>758</v>
+      <c r="B5" s="590" t="s">
+        <v>756</v>
       </c>
       <c r="C5" s="347"/>
       <c r="D5" s="347"/>
@@ -22809,17 +22866,17 @@
     </row>
     <row r="6" spans="1:12" s="291" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="289"/>
-      <c r="B6" s="448"/>
+      <c r="B6" s="447"/>
       <c r="C6" s="288"/>
       <c r="D6" s="288"/>
       <c r="E6" s="344"/>
     </row>
     <row r="7" spans="1:12" s="286" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A7" s="479"/>
-      <c r="B7" s="450"/>
+      <c r="A7" s="478"/>
+      <c r="B7" s="449"/>
       <c r="C7" s="295"/>
       <c r="D7" s="295"/>
-      <c r="E7" s="447"/>
+      <c r="E7" s="446"/>
     </row>
     <row r="8" spans="1:12" s="286" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="349" t="s">
@@ -22834,8 +22891,8 @@
       <c r="D8" s="298" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="447"/>
-      <c r="F8" s="451"/>
+      <c r="E8" s="446"/>
+      <c r="F8" s="450"/>
     </row>
     <row r="9" spans="1:12" s="301" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="299">
@@ -22847,11 +22904,11 @@
       <c r="C9" s="332">
         <v>510500</v>
       </c>
-      <c r="D9" s="332">
-        <f>D11+D13+D14+D16+D17+D22+D23+D24+D25</f>
-        <v>510500</v>
-      </c>
-      <c r="E9" s="447"/>
+      <c r="D9" s="332" t="e">
+        <f>D11+D13+D14+D16+D17+D22+D23+D24+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="446"/>
     </row>
     <row r="10" spans="1:12" s="301" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="273">
@@ -22860,15 +22917,15 @@
       <c r="B10" s="273" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="332">
-        <f>C12+C14+C15+C17+C18+C23+C24+C25</f>
-        <v>510500</v>
-      </c>
-      <c r="D10" s="332">
-        <f>D12+D14+D15+D17+D18+D23+D24+D25</f>
-        <v>510500</v>
-      </c>
-      <c r="E10" s="447"/>
+      <c r="C10" s="332" t="e">
+        <f>C12+C14+C15+C17+C18+C23+C24+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="332" t="e">
+        <f>D12+D14+D15+D17+D18+D23+D24+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="446"/>
     </row>
     <row r="11" spans="1:12" s="304" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="305" t="s">
@@ -22881,7 +22938,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="332"/>
-      <c r="E11" s="447"/>
+      <c r="E11" s="446"/>
     </row>
     <row r="12" spans="1:12" s="308" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="305" t="s">
@@ -22896,10 +22953,10 @@
       <c r="D12" s="420">
         <v>88421</v>
       </c>
-      <c r="E12" s="447"/>
-      <c r="I12" s="332">
-        <f>I14+I16+I17+I19+I20+I25+I26+I27</f>
-        <v>0</v>
+      <c r="E12" s="446"/>
+      <c r="I12" s="332" t="e">
+        <f>I14+I16+I17+I19+I20+#REF!+I25+I26</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="310" customFormat="1" ht="24.95" customHeight="1">
@@ -22915,7 +22972,7 @@
       <c r="D13" s="332">
         <v>88421</v>
       </c>
-      <c r="E13" s="447"/>
+      <c r="E13" s="446"/>
     </row>
     <row r="14" spans="1:12" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="278" t="s">
@@ -22928,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="332"/>
-      <c r="E14" s="447"/>
+      <c r="E14" s="446"/>
     </row>
     <row r="15" spans="1:12" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="305" t="s">
@@ -22943,14 +23000,14 @@
       <c r="D15" s="420">
         <v>53859</v>
       </c>
-      <c r="E15" s="447"/>
+      <c r="E15" s="446"/>
     </row>
     <row r="16" spans="1:12" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="278" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="278" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C16" s="332">
         <v>53859</v>
@@ -22958,7 +23015,7 @@
       <c r="D16" s="332">
         <v>53859</v>
       </c>
-      <c r="E16" s="447"/>
+      <c r="E16" s="446"/>
     </row>
     <row r="17" spans="1:6" s="310" customFormat="1" ht="32.25" customHeight="1">
       <c r="A17" s="278" t="s">
@@ -22973,7 +23030,7 @@
       <c r="D17" s="332">
         <v>1011</v>
       </c>
-      <c r="E17" s="447"/>
+      <c r="E17" s="446"/>
     </row>
     <row r="18" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="305" t="s">
@@ -22984,7 +23041,7 @@
       </c>
       <c r="C18" s="420"/>
       <c r="D18" s="420"/>
-      <c r="E18" s="447"/>
+      <c r="E18" s="446"/>
     </row>
     <row r="19" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="278" t="s">
@@ -22995,8 +23052,8 @@
       </c>
       <c r="C19" s="332"/>
       <c r="D19" s="332"/>
-      <c r="E19" s="447"/>
-      <c r="F19" s="452"/>
+      <c r="E19" s="446"/>
+      <c r="F19" s="451"/>
     </row>
     <row r="20" spans="1:6" s="310" customFormat="1" ht="32.25" customHeight="1">
       <c r="A20" s="278" t="s">
@@ -23007,7 +23064,7 @@
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="332"/>
-      <c r="E20" s="447"/>
+      <c r="E20" s="446"/>
       <c r="F20" s="289"/>
     </row>
     <row r="21" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
@@ -23019,7 +23076,7 @@
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="332"/>
-      <c r="E21" s="447"/>
+      <c r="E21" s="446"/>
       <c r="F21" s="338"/>
     </row>
     <row r="22" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
@@ -23031,7 +23088,7 @@
       </c>
       <c r="C22" s="332"/>
       <c r="D22" s="332"/>
-      <c r="E22" s="447"/>
+      <c r="E22" s="446"/>
     </row>
     <row r="23" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="305" t="s">
@@ -23042,150 +23099,147 @@
       </c>
       <c r="C23" s="421"/>
       <c r="D23" s="421"/>
-      <c r="E23" s="447"/>
+      <c r="E23" s="446"/>
     </row>
     <row r="24" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="305" t="s">
         <v>249</v>
       </c>
       <c r="B24" s="305" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C24" s="332">
-        <v>362350</v>
+        <v>367209</v>
       </c>
       <c r="D24" s="332">
-        <v>362350</v>
-      </c>
-      <c r="E24" s="447"/>
+        <v>367209</v>
+      </c>
+      <c r="E24" s="446"/>
     </row>
     <row r="25" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="305">
-        <v>1.17</v>
-      </c>
-      <c r="B25" s="305" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" s="332">
-        <v>4859</v>
-      </c>
-      <c r="D25" s="332">
-        <v>4859</v>
-      </c>
-      <c r="E25" s="447"/>
-    </row>
-    <row r="26" spans="1:6" s="310" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="273">
+      <c r="A25" s="273">
         <v>1.2</v>
       </c>
-      <c r="B26" s="299" t="s">
+      <c r="B25" s="299" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="324"/>
-      <c r="D26" s="324"/>
-      <c r="E26" s="447"/>
+      <c r="C25" s="324"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="446"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A26" s="305" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="452" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="420"/>
+      <c r="D26" s="420"/>
+      <c r="E26" s="446"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A27" s="305" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="453" t="s">
-        <v>310</v>
+      <c r="A27" s="278" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="305" t="s">
+        <v>313</v>
       </c>
       <c r="C27" s="420"/>
       <c r="D27" s="420"/>
-      <c r="E27" s="447"/>
+      <c r="E27" s="446"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A28" s="278" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="305" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="420"/>
-      <c r="D28" s="420"/>
-      <c r="E28" s="447"/>
+      <c r="A28" s="319" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="278" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="332"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="446"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1">
       <c r="A29" s="319" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="278" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C29" s="332"/>
       <c r="D29" s="332"/>
-      <c r="E29" s="447"/>
+      <c r="E29" s="446"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1">
       <c r="A30" s="319" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B30" s="278" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" s="332"/>
       <c r="D30" s="332"/>
-      <c r="E30" s="447"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A31" s="319" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="278" t="s">
-        <v>312</v>
+      <c r="E30" s="446"/>
+    </row>
+    <row r="31" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A31" s="305" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="452" t="s">
+        <v>457</v>
       </c>
       <c r="C31" s="332"/>
       <c r="D31" s="332"/>
-      <c r="E31" s="447"/>
-    </row>
-    <row r="32" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A32" s="305" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="453" t="s">
-        <v>458</v>
-      </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="447"/>
-    </row>
-    <row r="33" spans="1:9" s="291" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B33" s="454"/>
-    </row>
-    <row r="34" spans="1:9" s="291" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A34" s="425"/>
-      <c r="B34" s="454"/>
+      <c r="E31" s="446"/>
+    </row>
+    <row r="32" spans="1:6" s="291" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B32" s="453"/>
+    </row>
+    <row r="33" spans="1:9" s="291" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A33" s="424"/>
+      <c r="B33" s="453"/>
+      <c r="E33" s="335"/>
+    </row>
+    <row r="34" spans="1:9" s="291" customFormat="1">
+      <c r="B34" s="453"/>
       <c r="E34" s="335"/>
     </row>
-    <row r="35" spans="1:9" s="291" customFormat="1">
-      <c r="B35" s="454"/>
-      <c r="E35" s="335"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="424"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="425"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="291"/>
+      <c r="A36" s="291"/>
+    </row>
+    <row r="37" spans="1:9" s="291" customFormat="1">
+      <c r="A37" s="336" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="453"/>
+      <c r="E37" s="335"/>
     </row>
     <row r="38" spans="1:9" s="291" customFormat="1">
-      <c r="A38" s="336" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="454"/>
-      <c r="E38" s="335"/>
+      <c r="B38" s="453"/>
+      <c r="E38" s="337"/>
+      <c r="F38" s="337"/>
+      <c r="G38" s="337"/>
+      <c r="H38" s="337"/>
+      <c r="I38" s="337"/>
     </row>
     <row r="39" spans="1:9" s="291" customFormat="1">
-      <c r="B39" s="454"/>
+      <c r="B39" s="453"/>
+      <c r="D39" s="338"/>
       <c r="E39" s="337"/>
       <c r="F39" s="337"/>
       <c r="G39" s="337"/>
       <c r="H39" s="337"/>
       <c r="I39" s="337"/>
     </row>
-    <row r="40" spans="1:9" s="291" customFormat="1">
-      <c r="B40" s="454"/>
+    <row r="40" spans="1:9" s="291" customFormat="1" ht="27">
+      <c r="A40" s="337"/>
+      <c r="B40" s="456" t="s">
+        <v>480</v>
+      </c>
       <c r="D40" s="338"/>
       <c r="E40" s="337"/>
       <c r="F40" s="337"/>
@@ -23195,8 +23249,8 @@
     </row>
     <row r="41" spans="1:9" s="291" customFormat="1" ht="27">
       <c r="A41" s="337"/>
-      <c r="B41" s="457" t="s">
-        <v>481</v>
+      <c r="B41" s="453" t="s">
+        <v>268</v>
       </c>
       <c r="D41" s="338"/>
       <c r="E41" s="337"/>
@@ -23205,25 +23259,13 @@
       <c r="H41" s="337"/>
       <c r="I41" s="337"/>
     </row>
-    <row r="42" spans="1:9" s="291" customFormat="1" ht="27">
-      <c r="A42" s="337"/>
-      <c r="B42" s="454" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="338"/>
-      <c r="E42" s="337"/>
-      <c r="F42" s="337"/>
-      <c r="G42" s="337"/>
-      <c r="H42" s="337"/>
-      <c r="I42" s="337"/>
+    <row r="42" spans="1:9" s="337" customFormat="1">
+      <c r="B42" s="457" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="337" customFormat="1">
-      <c r="B43" s="458" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="337" customFormat="1">
-      <c r="B44" s="459"/>
+      <c r="B43" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23263,10 +23305,10 @@
         <v>411</v>
       </c>
       <c r="B1" s="284"/>
-      <c r="C1" s="598" t="s">
+      <c r="C1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="598"/>
+      <c r="D1" s="597"/>
       <c r="E1" s="285"/>
     </row>
     <row r="2" spans="1:6" s="286" customFormat="1">
@@ -23274,10 +23316,10 @@
         <v>412</v>
       </c>
       <c r="B2" s="284"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
       <c r="E2" s="285"/>
     </row>
     <row r="3" spans="1:6" s="286" customFormat="1">
@@ -23320,8 +23362,8 @@
         <f>'[1]ფორმა N1'!D4</f>
         <v/>
       </c>
-      <c r="B7" s="591" t="s">
-        <v>758</v>
+      <c r="B7" s="590" t="s">
+        <v>756</v>
       </c>
       <c r="C7" s="294"/>
       <c r="D7" s="294"/>
@@ -23371,8 +23413,8 @@
         <f>D12+D15+D54+D59+D65+D74</f>
         <v>45063.29</v>
       </c>
-      <c r="E11" s="465"/>
-      <c r="F11" s="469"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="468"/>
     </row>
     <row r="12" spans="1:6" s="304" customFormat="1" ht="16.5">
       <c r="A12" s="273">
@@ -23459,10 +23501,10 @@
       <c r="B17" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="435"/>
-      <c r="D17" s="435"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
       <c r="E17" s="309"/>
-      <c r="F17" s="482"/>
+      <c r="F17" s="481"/>
     </row>
     <row r="18" spans="1:7" s="310" customFormat="1">
       <c r="A18" s="278" t="s">
@@ -23474,7 +23516,7 @@
       <c r="C18" s="306"/>
       <c r="D18" s="312"/>
       <c r="E18" s="309"/>
-      <c r="F18" s="482"/>
+      <c r="F18" s="481"/>
     </row>
     <row r="19" spans="1:7" s="310" customFormat="1">
       <c r="A19" s="305" t="s">
@@ -23499,7 +23541,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="278" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C20" s="315">
         <v>4530</v>
@@ -23508,17 +23550,17 @@
         <v>4530</v>
       </c>
       <c r="E20" s="316"/>
-      <c r="F20" s="481"/>
+      <c r="F20" s="480"/>
     </row>
     <row r="21" spans="1:7" s="317" customFormat="1">
       <c r="A21" s="278" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="278" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C21" s="315"/>
-      <c r="D21" s="427"/>
+      <c r="D21" s="426"/>
       <c r="E21" s="316"/>
     </row>
     <row r="22" spans="1:7" s="317" customFormat="1" ht="27">
@@ -23537,12 +23579,12 @@
         <v>284</v>
       </c>
       <c r="B23" s="278" t="s">
-        <v>612</v>
-      </c>
-      <c r="C23" s="471">
+        <v>610</v>
+      </c>
+      <c r="C23" s="470">
         <v>2282</v>
       </c>
-      <c r="D23" s="471">
+      <c r="D23" s="470">
         <v>2282</v>
       </c>
       <c r="E23" s="316"/>
@@ -23580,7 +23622,7 @@
         <v>287</v>
       </c>
       <c r="B26" s="319" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C26" s="315">
         <v>665.25</v>
@@ -23614,7 +23656,7 @@
       <c r="D28" s="315">
         <v>1015.5</v>
       </c>
-      <c r="E28" s="485"/>
+      <c r="E28" s="484"/>
     </row>
     <row r="29" spans="1:7" s="317" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="319" t="s">
@@ -23652,18 +23694,18 @@
         <v>1077.3499999999999</v>
       </c>
       <c r="E31" s="313"/>
-      <c r="F31" s="538"/>
-      <c r="G31" s="485"/>
+      <c r="F31" s="537"/>
+      <c r="G31" s="484"/>
     </row>
     <row r="32" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="305" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="305" t="s">
-        <v>611</v>
-      </c>
-      <c r="C32" s="437"/>
-      <c r="D32" s="437"/>
+        <v>609</v>
+      </c>
+      <c r="C32" s="436"/>
+      <c r="D32" s="436"/>
       <c r="E32" s="309"/>
     </row>
     <row r="33" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
@@ -23701,8 +23743,8 @@
       <c r="B35" s="278" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="537"/>
-      <c r="D35" s="436"/>
+      <c r="C35" s="536"/>
+      <c r="D35" s="435"/>
       <c r="E35" s="309"/>
     </row>
     <row r="36" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
@@ -23712,10 +23754,10 @@
       <c r="B36" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="436">
+      <c r="C36" s="435">
         <v>1190</v>
       </c>
-      <c r="D36" s="436">
+      <c r="D36" s="435">
         <v>1190</v>
       </c>
       <c r="E36" s="309"/>
@@ -23759,8 +23801,8 @@
       <c r="B39" s="320" t="s">
         <v>363</v>
       </c>
-      <c r="C39" s="435"/>
-      <c r="D39" s="435"/>
+      <c r="C39" s="434"/>
+      <c r="D39" s="434"/>
       <c r="E39" s="309"/>
     </row>
     <row r="40" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
@@ -23770,8 +23812,8 @@
       <c r="B40" s="320" t="s">
         <v>364</v>
       </c>
-      <c r="C40" s="435"/>
-      <c r="D40" s="435"/>
+      <c r="C40" s="434"/>
+      <c r="D40" s="434"/>
       <c r="E40" s="309"/>
       <c r="G40" s="321"/>
     </row>
@@ -23807,10 +23849,10 @@
         <v>369</v>
       </c>
       <c r="B43" s="320" t="s">
-        <v>465</v>
-      </c>
-      <c r="C43" s="435"/>
-      <c r="D43" s="435"/>
+        <v>464</v>
+      </c>
+      <c r="C43" s="434"/>
+      <c r="D43" s="434"/>
       <c r="E43" s="309"/>
       <c r="F43" s="321"/>
     </row>
@@ -23821,14 +23863,14 @@
       <c r="B44" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="428">
+      <c r="C44" s="427">
         <v>340</v>
       </c>
-      <c r="D44" s="428">
+      <c r="D44" s="427">
         <v>340</v>
       </c>
       <c r="E44" s="309"/>
-      <c r="F44" s="482"/>
+      <c r="F44" s="481"/>
     </row>
     <row r="45" spans="1:7" s="310" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="305" t="s">
@@ -23846,12 +23888,12 @@
         <v>39</v>
       </c>
       <c r="B46" s="305" t="s">
-        <v>474</v>
-      </c>
-      <c r="C46" s="428">
+        <v>473</v>
+      </c>
+      <c r="C46" s="427">
         <v>200</v>
       </c>
-      <c r="D46" s="428">
+      <c r="D46" s="427">
         <v>200</v>
       </c>
       <c r="E46" s="309"/>
@@ -23890,10 +23932,10 @@
       <c r="B49" s="278" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="438">
+      <c r="C49" s="437">
         <v>7060</v>
       </c>
-      <c r="D49" s="438">
+      <c r="D49" s="437">
         <v>7060</v>
       </c>
       <c r="E49" s="309"/>
@@ -23906,8 +23948,8 @@
       <c r="B50" s="278" t="s">
         <v>377</v>
       </c>
-      <c r="C50" s="435"/>
-      <c r="D50" s="461"/>
+      <c r="C50" s="434"/>
+      <c r="D50" s="460"/>
       <c r="E50" s="309"/>
     </row>
     <row r="51" spans="1:6" s="310" customFormat="1" ht="16.5" customHeight="1">
@@ -23917,8 +23959,8 @@
       <c r="B51" s="278" t="s">
         <v>380</v>
       </c>
-      <c r="C51" s="436"/>
-      <c r="D51" s="436"/>
+      <c r="C51" s="435"/>
+      <c r="D51" s="435"/>
       <c r="E51" s="309"/>
     </row>
     <row r="52" spans="1:6" s="310" customFormat="1">
@@ -23937,16 +23979,16 @@
         <v>43</v>
       </c>
       <c r="B53" s="305" t="s">
-        <v>475</v>
-      </c>
-      <c r="C53" s="429">
+        <v>474</v>
+      </c>
+      <c r="C53" s="428">
         <v>1524</v>
       </c>
-      <c r="D53" s="429">
+      <c r="D53" s="428">
         <v>1524</v>
       </c>
-      <c r="E53" s="474"/>
-      <c r="F53" s="483"/>
+      <c r="E53" s="473"/>
+      <c r="F53" s="482"/>
     </row>
     <row r="54" spans="1:6" s="310" customFormat="1" ht="27">
       <c r="A54" s="273">
@@ -23971,10 +24013,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="305" t="s">
-        <v>476</v>
-      </c>
-      <c r="C55" s="435"/>
-      <c r="D55" s="435"/>
+        <v>475</v>
+      </c>
+      <c r="C55" s="434"/>
+      <c r="D55" s="434"/>
       <c r="E55" s="313"/>
       <c r="F55" s="314"/>
     </row>
@@ -24024,7 +24066,7 @@
         <f>SUM(C60:C64)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="430">
+      <c r="D59" s="429">
         <f>SUM(D60:D64)</f>
         <v>0</v>
       </c>
@@ -24069,7 +24111,7 @@
         <v>302</v>
       </c>
       <c r="B63" s="325" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C63" s="315"/>
       <c r="D63" s="315"/>
@@ -24163,7 +24205,7 @@
         <v>2.6</v>
       </c>
       <c r="B71" s="329" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C71" s="326"/>
       <c r="D71" s="330"/>
@@ -24224,7 +24266,7 @@
         <v>4.2</v>
       </c>
       <c r="B76" s="328" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C76" s="331"/>
       <c r="D76" s="332"/>
@@ -24274,7 +24316,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="337"/>
       <c r="B85" s="336" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D85" s="338"/>
       <c r="E85" s="337"/>
@@ -24288,8 +24330,8 @@
       <c r="B86" s="291" t="s">
         <v>454</v>
       </c>
-      <c r="D86" s="599"/>
-      <c r="E86" s="599"/>
+      <c r="D86" s="598"/>
+      <c r="E86" s="598"/>
       <c r="F86" s="337"/>
       <c r="G86" s="337"/>
       <c r="H86" s="337"/>
@@ -24299,10 +24341,10 @@
       <c r="B87" s="339" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="600" t="s">
-        <v>486</v>
-      </c>
-      <c r="D87" s="600"/>
+      <c r="C87" s="599" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" s="599"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -24343,10 +24385,10 @@
         <v>329</v>
       </c>
       <c r="B1" s="289"/>
-      <c r="C1" s="598" t="s">
+      <c r="C1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="598"/>
+      <c r="D1" s="597"/>
       <c r="E1" s="285"/>
     </row>
     <row r="2" spans="1:5" s="286" customFormat="1">
@@ -24354,10 +24396,10 @@
         <v>330</v>
       </c>
       <c r="B2" s="289"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
       <c r="E2" s="285"/>
     </row>
     <row r="3" spans="1:5" s="286" customFormat="1">
@@ -24395,8 +24437,8 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="289"/>
-      <c r="B7" s="591" t="s">
-        <v>758</v>
+      <c r="B7" s="590" t="s">
+        <v>756</v>
       </c>
       <c r="C7" s="288"/>
       <c r="D7" s="288"/>
@@ -24488,11 +24530,11 @@
       <c r="E16" s="307"/>
     </row>
     <row r="17" spans="1:5" s="308" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="464" t="s">
-        <v>483</v>
+      <c r="A17" s="463" t="s">
+        <v>482</v>
       </c>
       <c r="B17" s="273" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C17" s="311">
         <v>1524</v>
@@ -24503,8 +24545,8 @@
       <c r="E17" s="307"/>
     </row>
     <row r="18" spans="1:5" s="308" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="464" t="s">
-        <v>483</v>
+      <c r="A18" s="463" t="s">
+        <v>482</v>
       </c>
       <c r="B18" s="273"/>
       <c r="C18" s="306"/>
@@ -24512,8 +24554,8 @@
       <c r="E18" s="307"/>
     </row>
     <row r="19" spans="1:5" s="308" customFormat="1">
-      <c r="A19" s="464" t="s">
-        <v>483</v>
+      <c r="A19" s="463" t="s">
+        <v>482</v>
       </c>
       <c r="B19" s="273"/>
       <c r="C19" s="306"/>
@@ -24623,7 +24665,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="336"/>
       <c r="B35" s="336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D35" s="338"/>
       <c r="E35" s="337"/>
@@ -24675,17 +24717,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="431" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="431" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="431" customWidth="1"/>
-    <col min="4" max="4" width="17" style="431" customWidth="1"/>
-    <col min="5" max="5" width="28" style="431" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="431" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="431" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="431" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="431" customWidth="1"/>
-    <col min="10" max="10" width="0" style="431" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="431"/>
+    <col min="1" max="1" width="5.42578125" style="430" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="430" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="430" customWidth="1"/>
+    <col min="4" max="4" width="17" style="430" customWidth="1"/>
+    <col min="5" max="5" width="28" style="430" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="430" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="430" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="430" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="430" customWidth="1"/>
+    <col min="10" max="10" width="0" style="430" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="430"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -24699,10 +24741,10 @@
       <c r="F1" s="289"/>
       <c r="G1" s="287"/>
       <c r="H1" s="287"/>
-      <c r="I1" s="598" t="s">
+      <c r="I1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="598"/>
+      <c r="J1" s="597"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="288" t="s">
@@ -24715,10 +24757,10 @@
       <c r="F2" s="289"/>
       <c r="G2" s="287"/>
       <c r="H2" s="287"/>
-      <c r="I2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="J2" s="596"/>
+      <c r="I2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="J2" s="595"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="288"/>
@@ -24747,8 +24789,8 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="293"/>
-      <c r="B5" s="591" t="s">
-        <v>758</v>
+      <c r="B5" s="590" t="s">
+        <v>756</v>
       </c>
       <c r="C5" s="293"/>
       <c r="D5" s="293"/>
@@ -24808,7 +24850,7 @@
       <c r="I8" s="298" t="s">
         <v>400</v>
       </c>
-      <c r="J8" s="431" t="s">
+      <c r="J8" s="430" t="s">
         <v>351</v>
       </c>
     </row>
@@ -24817,31 +24859,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="80" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="583" t="s">
         <v>715</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="E9" s="80" t="s">
         <v>716</v>
-      </c>
-      <c r="D9" s="584" t="s">
-        <v>717</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>718</v>
       </c>
       <c r="F9" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="476">
+      <c r="G9" s="475">
         <v>2250</v>
       </c>
-      <c r="H9" s="476">
+      <c r="H9" s="475">
         <v>2250</v>
       </c>
-      <c r="I9" s="476">
+      <c r="I9" s="475">
         <f>H9*20%</f>
         <v>450</v>
       </c>
-      <c r="J9" s="431" t="s">
+      <c r="J9" s="430" t="s">
         <v>0</v>
       </c>
     </row>
@@ -24850,27 +24892,27 @@
         <v>2</v>
       </c>
       <c r="B10" s="80" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>718</v>
+      </c>
+      <c r="D10" s="583" t="s">
         <v>719</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="E10" s="80" t="s">
         <v>720</v>
-      </c>
-      <c r="D10" s="584" t="s">
-        <v>721</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>722</v>
       </c>
       <c r="F10" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="476">
+      <c r="G10" s="475">
         <v>2250</v>
       </c>
-      <c r="H10" s="476">
+      <c r="H10" s="475">
         <v>2250</v>
       </c>
-      <c r="I10" s="476">
+      <c r="I10" s="475">
         <f t="shared" ref="I10:I20" si="0">H10*20%</f>
         <v>450</v>
       </c>
@@ -24880,27 +24922,27 @@
         <v>3</v>
       </c>
       <c r="B11" s="80" t="s">
+        <v>721</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="583" t="s">
         <v>723</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="E11" s="80" t="s">
         <v>724</v>
-      </c>
-      <c r="D11" s="584" t="s">
-        <v>725</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="476">
+      <c r="G11" s="475">
         <v>1875</v>
       </c>
-      <c r="H11" s="476">
+      <c r="H11" s="475">
         <v>1875</v>
       </c>
-      <c r="I11" s="476">
+      <c r="I11" s="475">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -24910,27 +24952,27 @@
         <v>4</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C12" s="80" t="s">
+        <v>725</v>
+      </c>
+      <c r="D12" s="583" t="s">
+        <v>726</v>
+      </c>
+      <c r="E12" s="80" t="s">
         <v>727</v>
-      </c>
-      <c r="D12" s="584" t="s">
-        <v>728</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>729</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G12" s="476">
+      <c r="G12" s="475">
         <v>4325</v>
       </c>
-      <c r="H12" s="476">
+      <c r="H12" s="475">
         <v>4325</v>
       </c>
-      <c r="I12" s="476">
+      <c r="I12" s="475">
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
@@ -24940,27 +24982,27 @@
         <v>5</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>730</v>
-      </c>
-      <c r="D13" s="584" t="s">
-        <v>731</v>
+        <v>728</v>
+      </c>
+      <c r="D13" s="583" t="s">
+        <v>729</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G13" s="476">
+      <c r="G13" s="475">
         <v>2250</v>
       </c>
-      <c r="H13" s="476">
+      <c r="H13" s="475">
         <v>2250</v>
       </c>
-      <c r="I13" s="476">
+      <c r="I13" s="475">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -24970,27 +25012,27 @@
         <v>6</v>
       </c>
       <c r="B14" s="80" t="s">
+        <v>730</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>731</v>
+      </c>
+      <c r="D14" s="583" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="80" t="s">
-        <v>733</v>
-      </c>
-      <c r="D14" s="584" t="s">
-        <v>734</v>
-      </c>
       <c r="E14" s="80" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="476">
+      <c r="G14" s="475">
         <v>1875</v>
       </c>
-      <c r="H14" s="476">
+      <c r="H14" s="475">
         <v>1875</v>
       </c>
-      <c r="I14" s="476">
+      <c r="I14" s="475">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -25000,27 +25042,27 @@
         <v>7</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>575</v>
-      </c>
-      <c r="D15" s="584" t="s">
-        <v>577</v>
+        <v>574</v>
+      </c>
+      <c r="D15" s="583" t="s">
+        <v>576</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F15" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G15" s="476">
+      <c r="G15" s="475">
         <v>1800</v>
       </c>
-      <c r="H15" s="476">
+      <c r="H15" s="475">
         <v>1800</v>
       </c>
-      <c r="I15" s="476">
+      <c r="I15" s="475">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -25030,27 +25072,27 @@
         <v>8</v>
       </c>
       <c r="B16" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="583" t="s">
         <v>737</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="E16" s="80" t="s">
         <v>738</v>
-      </c>
-      <c r="D16" s="584" t="s">
-        <v>739</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>740</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="476">
+      <c r="G16" s="475">
         <v>2625</v>
       </c>
-      <c r="H16" s="476">
+      <c r="H16" s="475">
         <v>2625</v>
       </c>
-      <c r="I16" s="476">
+      <c r="I16" s="475">
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
@@ -25060,27 +25102,27 @@
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="583" t="s">
         <v>741</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="E17" s="80" t="s">
         <v>742</v>
-      </c>
-      <c r="D17" s="584" t="s">
-        <v>743</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>744</v>
       </c>
       <c r="F17" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G17" s="476">
+      <c r="G17" s="475">
         <v>1500</v>
       </c>
-      <c r="H17" s="476">
+      <c r="H17" s="475">
         <v>1500</v>
       </c>
-      <c r="I17" s="476">
+      <c r="I17" s="475">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -25090,27 +25132,27 @@
         <v>10</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D18" s="80">
         <v>56001003876</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F18" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G18" s="476">
+      <c r="G18" s="475">
         <v>1875</v>
       </c>
-      <c r="H18" s="476">
+      <c r="H18" s="475">
         <v>1875</v>
       </c>
-      <c r="I18" s="476">
+      <c r="I18" s="475">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
@@ -25120,27 +25162,27 @@
         <v>11</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" s="80" t="s">
+        <v>745</v>
+      </c>
+      <c r="D19" s="583" t="s">
+        <v>746</v>
+      </c>
+      <c r="E19" s="80" t="s">
         <v>747</v>
-      </c>
-      <c r="D19" s="584" t="s">
-        <v>748</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>749</v>
       </c>
       <c r="F19" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G19" s="476">
+      <c r="G19" s="475">
         <v>1125</v>
       </c>
-      <c r="H19" s="476">
+      <c r="H19" s="475">
         <v>1125</v>
       </c>
-      <c r="I19" s="476">
+      <c r="I19" s="475">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
@@ -25150,27 +25192,27 @@
         <v>12</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D20" s="80">
         <v>1007009829</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F20" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="476">
+      <c r="G20" s="475">
         <v>1250</v>
       </c>
-      <c r="H20" s="476">
+      <c r="H20" s="475">
         <v>1250</v>
       </c>
-      <c r="I20" s="476">
+      <c r="I20" s="475">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
@@ -25211,7 +25253,7 @@
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="80"/>
       <c r="B24" s="72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -25228,15 +25270,15 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="432"/>
-      <c r="B25" s="432"/>
-      <c r="C25" s="432" t="s">
-        <v>472</v>
-      </c>
-      <c r="D25" s="432"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="432"/>
-      <c r="G25" s="432"/>
+      <c r="A25" s="431"/>
+      <c r="B25" s="431"/>
+      <c r="C25" s="431" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="431"/>
+      <c r="E25" s="431"/>
+      <c r="F25" s="431"/>
+      <c r="G25" s="431"/>
       <c r="H25" s="375"/>
       <c r="I25" s="375"/>
     </row>
@@ -25254,15 +25296,15 @@
       <c r="I26" s="375"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="433"/>
-      <c r="B27" s="433"/>
-      <c r="C27" s="433" t="s">
+      <c r="A27" s="432"/>
+      <c r="B27" s="432"/>
+      <c r="C27" s="432" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="433"/>
-      <c r="E27" s="433"/>
-      <c r="F27" s="433"/>
-      <c r="G27" s="433"/>
+      <c r="D27" s="432"/>
+      <c r="E27" s="432"/>
+      <c r="F27" s="432"/>
+      <c r="G27" s="432"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25309,10 +25351,10 @@
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
-      <c r="G1" s="601" t="s">
+      <c r="G1" s="600" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="601"/>
+      <c r="H1" s="600"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="63" t="s">
@@ -25323,10 +25365,10 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
-      <c r="G2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="H2" s="596"/>
+      <c r="G2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="H2" s="595"/>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="63"/>
@@ -25361,10 +25403,10 @@
       <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="B6" s="602"/>
+      <c r="A6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" s="601"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -25414,9 +25456,9 @@
       <c r="C9" s="80"/>
       <c r="D9" s="328"/>
       <c r="E9" s="328"/>
-      <c r="F9" s="477"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
+      <c r="F9" s="476"/>
+      <c r="G9" s="433"/>
+      <c r="H9" s="433"/>
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="328"/>
@@ -25424,9 +25466,9 @@
       <c r="C10" s="80"/>
       <c r="D10" s="328"/>
       <c r="E10" s="328"/>
-      <c r="F10" s="477"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
+      <c r="F10" s="476"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="433"/>
     </row>
     <row r="11" spans="1:8" ht="15">
       <c r="A11" s="328"/>
@@ -25434,9 +25476,9 @@
       <c r="C11" s="80"/>
       <c r="D11" s="328"/>
       <c r="E11" s="328"/>
-      <c r="F11" s="477"/>
-      <c r="G11" s="434"/>
-      <c r="H11" s="434"/>
+      <c r="F11" s="476"/>
+      <c r="G11" s="433"/>
+      <c r="H11" s="433"/>
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="80"/>
@@ -25444,9 +25486,9 @@
       <c r="C12" s="80"/>
       <c r="D12" s="328"/>
       <c r="E12" s="328"/>
-      <c r="F12" s="477"/>
-      <c r="G12" s="434"/>
-      <c r="H12" s="434"/>
+      <c r="F12" s="476"/>
+      <c r="G12" s="433"/>
+      <c r="H12" s="433"/>
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="80"/>
@@ -25455,8 +25497,8 @@
       <c r="D13" s="80"/>
       <c r="E13" s="328"/>
       <c r="F13" s="80"/>
-      <c r="G13" s="476"/>
-      <c r="H13" s="476"/>
+      <c r="G13" s="475"/>
+      <c r="H13" s="475"/>
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="80"/>
@@ -25465,8 +25507,8 @@
       <c r="D14" s="80"/>
       <c r="E14" s="328"/>
       <c r="F14" s="80"/>
-      <c r="G14" s="434"/>
-      <c r="H14" s="434"/>
+      <c r="G14" s="433"/>
+      <c r="H14" s="433"/>
     </row>
     <row r="15" spans="1:8" ht="15">
       <c r="A15" s="80"/>
@@ -25475,8 +25517,8 @@
       <c r="D15" s="80"/>
       <c r="E15" s="328"/>
       <c r="F15" s="80"/>
-      <c r="G15" s="476"/>
-      <c r="H15" s="476"/>
+      <c r="G15" s="475"/>
+      <c r="H15" s="475"/>
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="80"/>
@@ -25485,8 +25527,8 @@
       <c r="D16" s="80"/>
       <c r="E16" s="328"/>
       <c r="F16" s="80"/>
-      <c r="G16" s="476"/>
-      <c r="H16" s="476"/>
+      <c r="G16" s="475"/>
+      <c r="H16" s="475"/>
     </row>
     <row r="17" spans="1:8" ht="15">
       <c r="A17" s="328"/>
@@ -25495,18 +25537,18 @@
       <c r="D17" s="80"/>
       <c r="E17" s="328"/>
       <c r="F17" s="80"/>
-      <c r="G17" s="476"/>
-      <c r="H17" s="476"/>
+      <c r="G17" s="475"/>
+      <c r="H17" s="475"/>
     </row>
     <row r="18" spans="1:8" ht="15">
-      <c r="A18" s="475"/>
-      <c r="B18" s="475"/>
+      <c r="A18" s="474"/>
+      <c r="B18" s="474"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="328"/>
       <c r="F18" s="80"/>
-      <c r="G18" s="476"/>
-      <c r="H18" s="476"/>
+      <c r="G18" s="475"/>
+      <c r="H18" s="475"/>
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="A19" s="81"/>
@@ -25702,10 +25744,10 @@
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
-      <c r="G1" s="601" t="s">
+      <c r="G1" s="600" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="601"/>
+      <c r="H1" s="600"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="63" t="s">
@@ -25716,10 +25758,10 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
-      <c r="G2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="H2" s="596"/>
+      <c r="G2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="H2" s="595"/>
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="63"/>
@@ -25757,10 +25799,10 @@
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
-      <c r="C6" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="D6" s="602"/>
+      <c r="C6" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="601"/>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
       <c r="G6" s="63"/>
@@ -25809,13 +25851,13 @@
       <c r="A9" s="80">
         <v>1</v>
       </c>
-      <c r="B9" s="431"/>
+      <c r="B9" s="430"/>
       <c r="C9" s="328"/>
       <c r="D9" s="80"/>
       <c r="E9" s="328"/>
-      <c r="F9" s="478"/>
-      <c r="G9" s="476"/>
-      <c r="H9" s="476"/>
+      <c r="F9" s="477"/>
+      <c r="G9" s="475"/>
+      <c r="H9" s="475"/>
       <c r="J9" s="201" t="s">
         <v>0</v>
       </c>
@@ -25829,8 +25871,8 @@
       <c r="D10" s="80"/>
       <c r="E10" s="328"/>
       <c r="F10" s="80"/>
-      <c r="G10" s="476"/>
-      <c r="H10" s="476"/>
+      <c r="G10" s="475"/>
+      <c r="H10" s="475"/>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="80">
@@ -25841,8 +25883,8 @@
       <c r="D11" s="80"/>
       <c r="E11" s="328"/>
       <c r="F11" s="80"/>
-      <c r="G11" s="476"/>
-      <c r="H11" s="476"/>
+      <c r="G11" s="475"/>
+      <c r="H11" s="475"/>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="72"/>
@@ -26264,10 +26306,10 @@
         <v>304</v>
       </c>
       <c r="B1" s="341"/>
-      <c r="C1" s="598" t="s">
+      <c r="C1" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="598"/>
+      <c r="D1" s="597"/>
       <c r="E1" s="342"/>
     </row>
     <row r="2" spans="1:12">
@@ -26275,10 +26317,10 @@
         <v>138</v>
       </c>
       <c r="B2" s="341"/>
-      <c r="C2" s="595" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="596"/>
+      <c r="C2" s="594" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="595"/>
       <c r="E2" s="342"/>
     </row>
     <row r="3" spans="1:12">
@@ -26304,10 +26346,10 @@
         <f>'ფორმა N1'!D4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B5" s="602" t="s">
-        <v>758</v>
-      </c>
-      <c r="C5" s="602"/>
+      <c r="B5" s="601" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="601"/>
       <c r="D5" s="347"/>
       <c r="E5" s="344"/>
     </row>
@@ -26356,9 +26398,9 @@
         <v>557607.73</v>
       </c>
       <c r="E9" s="351"/>
-      <c r="F9" s="462"/>
-      <c r="G9" s="462"/>
-      <c r="H9" s="462"/>
+      <c r="F9" s="461"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="461"/>
     </row>
     <row r="10" spans="1:12" s="304" customFormat="1" ht="16.5">
       <c r="A10" s="352">
@@ -26367,11 +26409,11 @@
       <c r="B10" s="352" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="531">
+      <c r="C10" s="530">
         <f>SUM(C11:C12)</f>
         <v>19575</v>
       </c>
-      <c r="D10" s="531">
+      <c r="D10" s="530">
         <f>SUM(D11:D12)</f>
         <v>19575</v>
       </c>
@@ -26387,7 +26429,7 @@
       <c r="C11" s="26">
         <v>19575</v>
       </c>
-      <c r="D11" s="532">
+      <c r="D11" s="531">
         <v>19575</v>
       </c>
       <c r="E11" s="351"/>
@@ -26400,7 +26442,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="532"/>
+      <c r="D12" s="531"/>
       <c r="E12" s="342"/>
     </row>
     <row r="13" spans="1:12" ht="15">
@@ -26410,11 +26452,11 @@
       <c r="B13" s="352" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="533">
+      <c r="C13" s="532">
         <f>C14+C17+C29+C30+C32+C35+C36+C42+C46+C51+C52+C57</f>
         <v>538032.73</v>
       </c>
-      <c r="D13" s="533">
+      <c r="D13" s="532">
         <f>D14+D17+D29+D30+D32+D35+D36+D42+D46+D51+D52+D57</f>
         <v>538032.73</v>
       </c>
@@ -26427,10 +26469,10 @@
       <c r="B14" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="533">
+      <c r="C14" s="532">
         <v>5980</v>
       </c>
-      <c r="D14" s="533">
+      <c r="D14" s="532">
         <v>5980</v>
       </c>
       <c r="E14" s="342"/>
@@ -26442,10 +26484,10 @@
       <c r="B15" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="533">
+      <c r="C15" s="532">
         <v>5980</v>
       </c>
-      <c r="D15" s="533">
+      <c r="D15" s="532">
         <v>5980</v>
       </c>
       <c r="E15" s="342"/>
@@ -26457,10 +26499,10 @@
       <c r="B16" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="533">
+      <c r="C16" s="532">
         <v>0</v>
       </c>
-      <c r="D16" s="533">
+      <c r="D16" s="532">
         <v>0</v>
       </c>
       <c r="E16" s="342"/>
@@ -26473,10 +26515,10 @@
       <c r="B17" s="353" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="533">
+      <c r="C17" s="532">
         <v>11710.49</v>
       </c>
-      <c r="D17" s="533">
+      <c r="D17" s="532">
         <v>11710.49</v>
       </c>
       <c r="E17" s="342"/>
@@ -26486,12 +26528,12 @@
         <v>11</v>
       </c>
       <c r="B18" s="320" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="533">
+        <v>462</v>
+      </c>
+      <c r="C18" s="532">
         <v>6472.12</v>
       </c>
-      <c r="D18" s="533">
+      <c r="D18" s="532">
         <v>6472.12</v>
       </c>
       <c r="E18" s="342"/>
@@ -26503,10 +26545,10 @@
       <c r="B19" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="533">
+      <c r="C19" s="532">
         <v>0</v>
       </c>
-      <c r="D19" s="533">
+      <c r="D19" s="532">
         <v>0</v>
       </c>
       <c r="E19" s="342"/>
@@ -26518,10 +26560,10 @@
       <c r="B20" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="533">
+      <c r="C20" s="532">
         <v>0</v>
       </c>
-      <c r="D20" s="533">
+      <c r="D20" s="532">
         <v>0</v>
       </c>
       <c r="E20" s="342"/>
@@ -26531,12 +26573,12 @@
         <v>284</v>
       </c>
       <c r="B21" s="320" t="s">
-        <v>485</v>
-      </c>
-      <c r="C21" s="533">
+        <v>484</v>
+      </c>
+      <c r="C21" s="532">
         <v>4525</v>
       </c>
-      <c r="D21" s="533">
+      <c r="D21" s="532">
         <v>4525</v>
       </c>
       <c r="E21" s="342"/>
@@ -26546,12 +26588,12 @@
         <v>285</v>
       </c>
       <c r="B22" s="320" t="s">
-        <v>467</v>
-      </c>
-      <c r="C22" s="533">
+        <v>466</v>
+      </c>
+      <c r="C22" s="532">
         <v>0</v>
       </c>
-      <c r="D22" s="533">
+      <c r="D22" s="532">
         <v>0</v>
       </c>
       <c r="E22" s="342"/>
@@ -26563,10 +26605,10 @@
       <c r="B23" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="533">
+      <c r="C23" s="532">
         <v>713.3</v>
       </c>
-      <c r="D23" s="533">
+      <c r="D23" s="532">
         <v>713.3</v>
       </c>
       <c r="E23" s="342"/>
@@ -26576,12 +26618,12 @@
         <v>287</v>
       </c>
       <c r="B24" s="356" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="533">
+        <v>468</v>
+      </c>
+      <c r="C24" s="532">
         <v>425.56</v>
       </c>
-      <c r="D24" s="533">
+      <c r="D24" s="532">
         <v>425.45</v>
       </c>
       <c r="E24" s="342"/>
@@ -26593,10 +26635,10 @@
       <c r="B25" s="356" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="533">
+      <c r="C25" s="532">
         <v>461.56</v>
       </c>
-      <c r="D25" s="533">
+      <c r="D25" s="532">
         <v>461.56</v>
       </c>
       <c r="E25" s="342"/>
@@ -26608,10 +26650,10 @@
       <c r="B26" s="356" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="533">
+      <c r="C26" s="532">
         <v>56.25</v>
       </c>
-      <c r="D26" s="533">
+      <c r="D26" s="532">
         <v>56.25</v>
       </c>
       <c r="E26" s="342"/>
@@ -26623,10 +26665,10 @@
       <c r="B27" s="356" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="533">
+      <c r="C27" s="532">
         <v>0</v>
       </c>
-      <c r="D27" s="533">
+      <c r="D27" s="532">
         <v>0</v>
       </c>
       <c r="E27" s="342"/>
@@ -26636,12 +26678,12 @@
         <v>291</v>
       </c>
       <c r="B28" s="320" t="s">
-        <v>462</v>
-      </c>
-      <c r="C28" s="533">
+        <v>461</v>
+      </c>
+      <c r="C28" s="532">
         <v>0</v>
       </c>
-      <c r="D28" s="533">
+      <c r="D28" s="532">
         <v>0</v>
       </c>
       <c r="E28" s="342"/>
@@ -26653,10 +26695,10 @@
       <c r="B29" s="353" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="533">
+      <c r="C29" s="532">
         <v>1616.83</v>
       </c>
-      <c r="D29" s="533">
+      <c r="D29" s="532">
         <v>1616.83</v>
       </c>
       <c r="E29" s="342"/>
@@ -26668,10 +26710,10 @@
       <c r="B30" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="533">
+      <c r="C30" s="532">
         <v>4370.1000000000004</v>
       </c>
-      <c r="D30" s="533">
+      <c r="D30" s="532">
         <v>4370.1000000000004</v>
       </c>
       <c r="E30" s="342"/>
@@ -26683,10 +26725,10 @@
       <c r="B31" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="533">
+      <c r="C31" s="532">
         <v>0</v>
       </c>
-      <c r="D31" s="533">
+      <c r="D31" s="532">
         <v>0</v>
       </c>
       <c r="E31" s="342"/>
@@ -26698,10 +26740,10 @@
       <c r="B32" s="353" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="533">
+      <c r="C32" s="532">
         <v>35573.5</v>
       </c>
-      <c r="D32" s="533">
+      <c r="D32" s="532">
         <v>35573.5</v>
       </c>
       <c r="E32" s="342"/>
@@ -26713,10 +26755,10 @@
       <c r="B33" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="533">
+      <c r="C33" s="532">
         <v>35573.5</v>
       </c>
-      <c r="D33" s="533">
+      <c r="D33" s="532">
         <v>35573.5</v>
       </c>
       <c r="E33" s="342"/>
@@ -26728,10 +26770,10 @@
       <c r="B34" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="533">
+      <c r="C34" s="532">
         <v>0</v>
       </c>
-      <c r="D34" s="533" t="e">
+      <c r="D34" s="532" t="e">
         <f>#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -26744,10 +26786,10 @@
       <c r="B35" s="353" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="533">
+      <c r="C35" s="532">
         <v>841.15</v>
       </c>
-      <c r="D35" s="533">
+      <c r="D35" s="532">
         <v>841.15</v>
       </c>
       <c r="E35" s="342"/>
@@ -26759,10 +26801,10 @@
       <c r="B36" s="353" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="533">
+      <c r="C36" s="532">
         <v>35236.68</v>
       </c>
-      <c r="D36" s="533">
+      <c r="D36" s="532">
         <v>35236.68</v>
       </c>
       <c r="E36" s="342"/>
@@ -26772,12 +26814,12 @@
         <v>359</v>
       </c>
       <c r="B37" s="320" t="s">
-        <v>470</v>
-      </c>
-      <c r="C37" s="533">
+        <v>469</v>
+      </c>
+      <c r="C37" s="532">
         <v>14263</v>
       </c>
-      <c r="D37" s="533">
+      <c r="D37" s="532">
         <v>14263</v>
       </c>
       <c r="E37" s="342"/>
@@ -26790,10 +26832,10 @@
       <c r="B38" s="320" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="533">
+      <c r="C38" s="532">
         <v>6735.68</v>
       </c>
-      <c r="D38" s="533">
+      <c r="D38" s="532">
         <v>6735.68</v>
       </c>
       <c r="E38" s="342"/>
@@ -26805,10 +26847,10 @@
       <c r="B39" s="320" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="533">
+      <c r="C39" s="532">
         <v>3800</v>
       </c>
-      <c r="D39" s="533">
+      <c r="D39" s="532">
         <v>3800</v>
       </c>
       <c r="E39" s="342"/>
@@ -26820,10 +26862,10 @@
       <c r="B40" s="320" t="s">
         <v>368</v>
       </c>
-      <c r="C40" s="533">
+      <c r="C40" s="532">
         <v>8714</v>
       </c>
-      <c r="D40" s="533">
+      <c r="D40" s="532">
         <v>8714</v>
       </c>
       <c r="E40" s="342"/>
@@ -26835,10 +26877,10 @@
       <c r="B41" s="320" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="533">
+      <c r="C41" s="532">
         <v>1724</v>
       </c>
-      <c r="D41" s="533">
+      <c r="D41" s="532">
         <v>1724</v>
       </c>
       <c r="E41" s="342"/>
@@ -26850,10 +26892,10 @@
       <c r="B42" s="353" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="533">
+      <c r="C42" s="532">
         <v>1100</v>
       </c>
-      <c r="D42" s="533">
+      <c r="D42" s="532">
         <v>1100</v>
       </c>
       <c r="E42" s="342"/>
@@ -26865,10 +26907,10 @@
       <c r="B43" s="353" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="533">
+      <c r="C43" s="532">
         <v>0</v>
       </c>
-      <c r="D43" s="533">
+      <c r="D43" s="532">
         <v>0</v>
       </c>
       <c r="E43" s="342"/>
@@ -26880,10 +26922,10 @@
       <c r="B44" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="533">
+      <c r="C44" s="532">
         <v>0</v>
       </c>
-      <c r="D44" s="533">
+      <c r="D44" s="532">
         <v>0</v>
       </c>
       <c r="E44" s="342"/>
@@ -26895,10 +26937,10 @@
       <c r="B45" s="353" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="533">
+      <c r="C45" s="532">
         <v>0</v>
       </c>
-      <c r="D45" s="533">
+      <c r="D45" s="532">
         <v>0</v>
       </c>
       <c r="E45" s="342"/>
@@ -26910,10 +26952,10 @@
       <c r="B46" s="353" t="s">
         <v>298</v>
       </c>
-      <c r="C46" s="533">
+      <c r="C46" s="532">
         <v>23104.5</v>
       </c>
-      <c r="D46" s="533">
+      <c r="D46" s="532">
         <v>23104.5</v>
       </c>
       <c r="E46" s="342"/>
@@ -26923,12 +26965,12 @@
         <v>375</v>
       </c>
       <c r="B47" s="278" t="s">
-        <v>477</v>
-      </c>
-      <c r="C47" s="533">
+        <v>476</v>
+      </c>
+      <c r="C47" s="532">
         <v>22154.5</v>
       </c>
-      <c r="D47" s="533">
+      <c r="D47" s="532">
         <v>22154.5</v>
       </c>
       <c r="E47" s="342"/>
@@ -26940,10 +26982,10 @@
       <c r="B48" s="278" t="s">
         <v>377</v>
       </c>
-      <c r="C48" s="533">
+      <c r="C48" s="532">
         <v>0</v>
       </c>
-      <c r="D48" s="533">
+      <c r="D48" s="532">
         <v>0</v>
       </c>
       <c r="E48" s="342"/>
@@ -26955,10 +26997,10 @@
       <c r="B49" s="278" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="533">
+      <c r="C49" s="532">
         <v>950</v>
       </c>
-      <c r="D49" s="533">
+      <c r="D49" s="532">
         <v>950</v>
       </c>
       <c r="E49" s="342"/>
@@ -26970,10 +27012,10 @@
       <c r="B50" s="353" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="533">
+      <c r="C50" s="532">
         <v>0</v>
       </c>
-      <c r="D50" s="533">
+      <c r="D50" s="532">
         <v>0</v>
       </c>
       <c r="E50" s="342"/>
@@ -26983,12 +27025,12 @@
         <v>43</v>
       </c>
       <c r="B51" s="353" t="s">
-        <v>475</v>
-      </c>
-      <c r="C51" s="533">
+        <v>474</v>
+      </c>
+      <c r="C51" s="532">
         <v>369715</v>
       </c>
-      <c r="D51" s="533">
+      <c r="D51" s="532">
         <v>369715</v>
       </c>
       <c r="E51" s="342"/>
@@ -27001,10 +27043,10 @@
       <c r="B52" s="273" t="s">
         <v>421</v>
       </c>
-      <c r="C52" s="533">
+      <c r="C52" s="532">
         <v>45734.48</v>
       </c>
-      <c r="D52" s="533">
+      <c r="D52" s="532">
         <v>45734.48</v>
       </c>
       <c r="E52" s="342"/>
@@ -27014,12 +27056,12 @@
         <v>46</v>
       </c>
       <c r="B53" s="353" t="s">
-        <v>478</v>
-      </c>
-      <c r="C53" s="533">
+        <v>477</v>
+      </c>
+      <c r="C53" s="532">
         <v>45734.48</v>
       </c>
-      <c r="D53" s="533">
+      <c r="D53" s="532">
         <v>45734.48</v>
       </c>
       <c r="E53" s="342"/>
@@ -27031,10 +27073,10 @@
       <c r="B54" s="353" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="533">
+      <c r="C54" s="532">
         <v>0</v>
       </c>
-      <c r="D54" s="533">
+      <c r="D54" s="532">
         <v>0</v>
       </c>
       <c r="E54" s="342"/>
@@ -27046,10 +27088,10 @@
       <c r="B55" s="352" t="s">
         <v>423</v>
       </c>
-      <c r="C55" s="533">
+      <c r="C55" s="532">
         <v>0</v>
       </c>
-      <c r="D55" s="533">
+      <c r="D55" s="532">
         <v>0</v>
       </c>
       <c r="E55" s="342"/>
@@ -27061,10 +27103,10 @@
       <c r="B56" s="352" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="533">
+      <c r="C56" s="532">
         <v>0</v>
       </c>
-      <c r="D56" s="533">
+      <c r="D56" s="532">
         <v>0</v>
       </c>
       <c r="E56" s="342"/>
@@ -27076,10 +27118,10 @@
       <c r="B57" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="533">
+      <c r="C57" s="532">
         <v>3050</v>
       </c>
-      <c r="D57" s="533">
+      <c r="D57" s="532">
         <v>3050</v>
       </c>
       <c r="E57" s="342"/>
@@ -27091,10 +27133,10 @@
       <c r="B58" s="325" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="533">
+      <c r="C58" s="532">
         <v>0</v>
       </c>
-      <c r="D58" s="533">
+      <c r="D58" s="532">
         <v>0</v>
       </c>
       <c r="E58" s="342"/>
@@ -27104,12 +27146,12 @@
         <v>300</v>
       </c>
       <c r="B59" s="325" t="s">
-        <v>479</v>
-      </c>
-      <c r="C59" s="533">
+        <v>478</v>
+      </c>
+      <c r="C59" s="532">
         <v>0</v>
       </c>
-      <c r="D59" s="533">
+      <c r="D59" s="532">
         <v>0</v>
       </c>
       <c r="E59" s="342"/>
@@ -27121,10 +27163,10 @@
       <c r="B60" s="325" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="533">
+      <c r="C60" s="532">
         <v>0</v>
       </c>
-      <c r="D60" s="533">
+      <c r="D60" s="532">
         <v>0</v>
       </c>
       <c r="E60" s="342"/>
@@ -27136,10 +27178,10 @@
       <c r="B61" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="533">
+      <c r="C61" s="532">
         <v>3050</v>
       </c>
-      <c r="D61" s="533">
+      <c r="D61" s="532">
         <v>3050</v>
       </c>
       <c r="E61" s="342"/>
@@ -27151,10 +27193,10 @@
       <c r="B62" s="357" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="531">
+      <c r="C62" s="530">
         <v>0</v>
       </c>
-      <c r="D62" s="531">
+      <c r="D62" s="530">
         <v>0</v>
       </c>
       <c r="E62" s="342"/>
@@ -27166,10 +27208,10 @@
       <c r="B63" s="358" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="531">
+      <c r="C63" s="530">
         <v>0</v>
       </c>
-      <c r="D63" s="531">
+      <c r="D63" s="530">
         <v>0</v>
       </c>
       <c r="E63" s="342"/>
@@ -27181,10 +27223,10 @@
       <c r="B64" s="360" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="531">
+      <c r="C64" s="530">
         <v>0</v>
       </c>
-      <c r="D64" s="531">
+      <c r="D64" s="530">
         <v>0</v>
       </c>
       <c r="E64" s="342"/>
@@ -27196,10 +27238,10 @@
       <c r="B65" s="360" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="531">
+      <c r="C65" s="530">
         <v>0</v>
       </c>
-      <c r="D65" s="531">
+      <c r="D65" s="530">
         <v>0</v>
       </c>
       <c r="E65" s="342"/>
@@ -27211,10 +27253,10 @@
       <c r="B66" s="360" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="531">
+      <c r="C66" s="530">
         <v>0</v>
       </c>
-      <c r="D66" s="531">
+      <c r="D66" s="530">
         <v>0</v>
       </c>
       <c r="E66" s="342"/>
@@ -27226,10 +27268,10 @@
       <c r="B67" s="360" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="531">
+      <c r="C67" s="530">
         <v>0</v>
       </c>
-      <c r="D67" s="531">
+      <c r="D67" s="530">
         <v>0</v>
       </c>
       <c r="E67" s="342"/>
@@ -27241,10 +27283,10 @@
       <c r="B68" s="360" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="531">
+      <c r="C68" s="530">
         <v>0</v>
       </c>
-      <c r="D68" s="531">
+      <c r="D68" s="530">
         <v>0</v>
       </c>
       <c r="E68" s="342"/>
@@ -27256,10 +27298,10 @@
       <c r="B69" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="531">
+      <c r="C69" s="530">
         <v>0</v>
       </c>
-      <c r="D69" s="531">
+      <c r="D69" s="530">
         <v>0</v>
       </c>
       <c r="E69" s="342"/>
@@ -27271,10 +27313,10 @@
       <c r="B70" s="361" t="s">
         <v>455</v>
       </c>
-      <c r="C70" s="531">
+      <c r="C70" s="530">
         <v>0</v>
       </c>
-      <c r="D70" s="531">
+      <c r="D70" s="530">
         <v>0</v>
       </c>
       <c r="E70" s="362"/>
@@ -27286,10 +27328,10 @@
       <c r="B71" s="350" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="531">
+      <c r="C71" s="530">
         <v>0</v>
       </c>
-      <c r="D71" s="531">
+      <c r="D71" s="530">
         <v>0</v>
       </c>
       <c r="E71" s="362"/>
@@ -27301,10 +27343,10 @@
       <c r="B72" s="359" t="s">
         <v>251</v>
       </c>
-      <c r="C72" s="531">
+      <c r="C72" s="530">
         <v>0</v>
       </c>
-      <c r="D72" s="531">
+      <c r="D72" s="530">
         <v>0</v>
       </c>
       <c r="E72" s="362"/>
@@ -27316,10 +27358,10 @@
       <c r="B73" s="359" t="s">
         <v>252</v>
       </c>
-      <c r="C73" s="531">
+      <c r="C73" s="530">
         <v>0</v>
       </c>
-      <c r="D73" s="531">
+      <c r="D73" s="530">
         <v>0</v>
       </c>
       <c r="E73" s="362"/>
@@ -27331,10 +27373,10 @@
       <c r="B74" s="363" t="s">
         <v>281</v>
       </c>
-      <c r="C74" s="531">
+      <c r="C74" s="530">
         <v>0</v>
       </c>
-      <c r="D74" s="531">
+      <c r="D74" s="530">
         <v>0</v>
       </c>
       <c r="E74" s="362"/>
@@ -27348,8 +27390,8 @@
       <c r="D76" s="338"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="463"/>
-      <c r="B77" s="463"/>
+      <c r="A77" s="462"/>
+      <c r="B77" s="462"/>
       <c r="C77" s="291"/>
       <c r="D77" s="338"/>
     </row>
@@ -27383,7 +27425,7 @@
     <row r="83" spans="1:9" s="291" customFormat="1">
       <c r="A83" s="337"/>
       <c r="B83" s="336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C83" s="343"/>
       <c r="D83" s="343"/>
